--- a/mmc_enrollment_vs_spending.xlsx
+++ b/mmc_enrollment_vs_spending.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaac/Dropbox/S2P Datasets Shared Folder/MLTC_MMC_NH_data/reports_drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaac/Documents/RProjects/s2p_data_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBAC941-32D3-F54F-AF8B-C91B6E68958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D79843-3777-9548-9CB5-958D16CCC3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Average Annual Growth Rates</t>
   </si>
   <si>
-    <t>Enter Projected Growth Rate</t>
-  </si>
-  <si>
     <t>Data  Type</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Growth Trends</t>
   </si>
   <si>
-    <t>State Share Spending</t>
-  </si>
-  <si>
     <t>Per Capita Spending</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>Enrollee Months % Growth</t>
   </si>
   <si>
-    <t>State Share Spending Annual Change %</t>
-  </si>
-  <si>
     <t>Average Annual Per Capita Spending % Growth</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>State Spending Annual Change (Millions)</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>FY25</t>
   </si>
   <si>
@@ -236,9 +224,6 @@
     <t>Medicaid Managed Care Enrollment and Spending</t>
   </si>
   <si>
-    <t>Enrollment</t>
-  </si>
-  <si>
     <t>Average Annual Enrollment Change %</t>
   </si>
   <si>
@@ -249,9 +234,6 @@
   </si>
   <si>
     <t>FY26 Growth Assumptions</t>
-  </si>
-  <si>
-    <t>Enter Projected Growth Rates</t>
   </si>
   <si>
     <t>Definitions</t>
@@ -450,29 +432,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>State Share Spending Annual Change %:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The percentage change in the State’s share of Medicaid spending compared to the prior fiscal year.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Average Annual Spending per Enrollee Annual Change:</t>
     </r>
     <r>
@@ -540,6 +499,47 @@
   </si>
   <si>
     <t>Per Capita Spending State Spending</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>State Spending Annual Change %:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The percentage change in the State’s share of Medicaid spending compared to the prior fiscal year.</t>
+    </r>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>You can forecast projected enrollment and State spending by changing the two inputs below:</t>
+  </si>
+  <si>
+    <t>FY27 (Forecast)</t>
+  </si>
+  <si>
+    <t>FY28 (Forecast)</t>
+  </si>
+  <si>
+    <t>FY29 (Forecast)</t>
+  </si>
+  <si>
+    <t>Per Capita State Spending</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1081,20 +1081,24 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="16" xfId="11" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="19" xfId="11" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,6 +1114,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
@@ -1122,20 +1135,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="16" xfId="11" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="9" borderId="19" xfId="11" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent4" xfId="11" builtinId="42"/>
@@ -3594,10 +3593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92772258-4AC4-6B47-AC5E-CDE7A2651A1C}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3608,46 +3607,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="A1" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>1</v>
@@ -3656,25 +3655,25 @@
         <v>2</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K3" s="27" t="s">
         <v>9</v>
@@ -3683,803 +3682,941 @@
         <v>10</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="B4" s="27"/>
       <c r="C4" s="30">
-        <f>(1+A29)*C5</f>
-        <v>64792536.334400006</v>
+        <f t="shared" ref="C4:C7" si="0">D4*12</f>
+        <v>85536602.179255933</v>
       </c>
       <c r="D4" s="30">
-        <f>C4/12</f>
-        <v>5399378.0278666671</v>
+        <f>(1+$G$27)*D5</f>
+        <v>7128050.181604661</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F4" s="30">
         <f>C4-C5</f>
-        <v>2706932.3344000056</v>
+        <v>3573587.4425216168</v>
       </c>
       <c r="G4" s="32">
         <f>F4/C5</f>
-        <v>4.360000000000009E-2</v>
-      </c>
-      <c r="H4" s="40">
+        <v>4.3600000000000007E-2</v>
+      </c>
+      <c r="H4" s="36">
         <f>K4*D4</f>
-        <v>21644519355.747421</v>
-      </c>
-      <c r="I4" s="40">
+        <v>30681375768.480389</v>
+      </c>
+      <c r="I4" s="36">
         <f>H4-H5</f>
-        <v>1390374153.2300911</v>
+        <v>1970872679.2636147</v>
       </c>
       <c r="J4" s="33">
         <f>I4/H5</f>
-        <v>6.8646400000000274E-2</v>
+        <v>6.8646400000000149E-2</v>
       </c>
       <c r="K4" s="31">
         <f>(1+M4)*K5</f>
-        <v>4008.706048</v>
+        <v>4304.3153438593527</v>
       </c>
       <c r="L4" s="31">
         <f>K4-K5</f>
+        <v>100.88239087170405</v>
+      </c>
+      <c r="M4" s="32">
+        <f>$G$29</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="30">
+        <f t="shared" si="0"/>
+        <v>81963014.736734316</v>
+      </c>
+      <c r="D5" s="30">
+        <f>(1+$G$27)*D6</f>
+        <v>6830251.2280611927</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="30">
+        <f>C5-C6</f>
+        <v>3424288.4654289186</v>
+      </c>
+      <c r="G5" s="32">
+        <f>F5/C6</f>
+        <v>4.3600000000000042E-2</v>
+      </c>
+      <c r="H5" s="36">
+        <f>K5*D5</f>
+        <v>28710503089.216774</v>
+      </c>
+      <c r="I5" s="36">
+        <f>H5-H6</f>
+        <v>1844270171.3715706</v>
+      </c>
+      <c r="J5" s="33">
+        <f>I5/H6</f>
+        <v>6.8646400000000066E-2</v>
+      </c>
+      <c r="K5" s="31">
+        <f>(1+M5)*K6</f>
+        <v>4203.4329529876486</v>
+      </c>
+      <c r="L5" s="31">
+        <f>K5-K6</f>
+        <v>98.517959835648071</v>
+      </c>
+      <c r="M5" s="32">
+        <f>$G$29</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="30">
+        <f t="shared" si="0"/>
+        <v>78538726.271305397</v>
+      </c>
+      <c r="D6" s="30">
+        <f>(1+$G$27)*D7</f>
+        <v>6544893.8559421161</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="30">
+        <f>C6-C7</f>
+        <v>3281226.969556272</v>
+      </c>
+      <c r="G6" s="32">
+        <f>F6/C7</f>
+        <v>4.3600000000000139E-2</v>
+      </c>
+      <c r="H6" s="36">
+        <f>K6*D6</f>
+        <v>26866232917.845203</v>
+      </c>
+      <c r="I6" s="36">
+        <f>H6-H7</f>
+        <v>1725800200.4887428</v>
+      </c>
+      <c r="J6" s="33">
+        <f>I6/H7</f>
+        <v>6.8646400000000177E-2</v>
+      </c>
+      <c r="K6" s="31">
+        <f>(1+M6)*K7</f>
+        <v>4104.9149931520005</v>
+      </c>
+      <c r="L6" s="31">
+        <f>K6-K7</f>
+        <v>96.208945152000524</v>
+      </c>
+      <c r="M6" s="32">
+        <f>$G$29</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30">
+        <f t="shared" si="0"/>
+        <v>75257499.301749125</v>
+      </c>
+      <c r="D7" s="30">
+        <f>(1+$G$27)*D8</f>
+        <v>6271458.2751457607</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="30">
+        <f>C7-C8</f>
+        <v>3144142.3625491261</v>
+      </c>
+      <c r="G7" s="32">
+        <f>F7/C8</f>
+        <v>4.3600000000000083E-2</v>
+      </c>
+      <c r="H7" s="36">
+        <f>K7*D7</f>
+        <v>25140432717.356461</v>
+      </c>
+      <c r="I7" s="36">
+        <f>H7-H8</f>
+        <v>1614940358.6525383</v>
+      </c>
+      <c r="J7" s="33">
+        <f>I7/H8</f>
+        <v>6.8646400000000232E-2</v>
+      </c>
+      <c r="K7" s="31">
+        <f>(1+M7)*K8</f>
+        <v>4008.706048</v>
+      </c>
+      <c r="L7" s="31">
+        <f>K7-K8</f>
         <v>93.954048000000057</v>
       </c>
-      <c r="M4" s="32">
-        <f>A31</f>
+      <c r="M7" s="32">
+        <f>$G$29</f>
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30">
-        <f>C6*12/B6</f>
-        <v>62085604</v>
-      </c>
-      <c r="D5" s="30">
-        <f>C5/12</f>
-        <v>5173800.333333333</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="30">
-        <f>C5-C7</f>
-        <v>-7014966</v>
-      </c>
-      <c r="G5" s="33">
-        <f>F5/C7</f>
-        <v>-0.10151820744749283</v>
-      </c>
-      <c r="H5" s="40">
-        <f>K5*D5</f>
-        <v>20254145202.51733</v>
-      </c>
-      <c r="I5" s="40">
-        <f>H5-H7</f>
-        <v>-1758854797.4826698</v>
-      </c>
-      <c r="J5" s="33">
-        <f>I5/H7</f>
-        <v>-7.9900731271642655E-2</v>
-      </c>
-      <c r="K5" s="31">
-        <f>(1+M5)*K7</f>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30">
+        <f>D8*12</f>
+        <v>72113356.939199999</v>
+      </c>
+      <c r="D8" s="30">
+        <f>(1+$G$27)*D10</f>
+        <v>6009446.4116000002</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="30">
+        <f>C8-C10</f>
+        <v>3012786.939199999</v>
+      </c>
+      <c r="G8" s="33">
+        <f>F8/C10</f>
+        <v>4.36000302052501E-2</v>
+      </c>
+      <c r="H8" s="36">
+        <f>K8*D8</f>
+        <v>23525492358.703922</v>
+      </c>
+      <c r="I8" s="36">
+        <f>H8-H10</f>
+        <v>1512492358.7039223</v>
+      </c>
+      <c r="J8" s="33">
+        <f>I8/H10</f>
+        <v>6.870905186498534E-2</v>
+      </c>
+      <c r="K8" s="31">
+        <f>(1+M8)*K10</f>
         <v>3914.752</v>
       </c>
-      <c r="L5" s="31">
-        <f>K5-K7</f>
+      <c r="L8" s="31">
+        <f>K8-K10</f>
         <v>91.751999999999953</v>
       </c>
-      <c r="M5" s="32">
-        <f>A31</f>
+      <c r="M8" s="32">
+        <f>$G$29</f>
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="29">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="29">
         <v>3</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C9" s="30">
         <v>15521401</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D9" s="30">
         <v>5173800</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E9" s="30">
         <v>5098780</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="29">
-        <v>12</v>
-      </c>
-      <c r="C7" s="30">
-        <v>69100570</v>
-      </c>
-      <c r="D7" s="30">
-        <v>5758381</v>
-      </c>
-      <c r="E7" s="30">
-        <v>5539840</v>
-      </c>
-      <c r="F7" s="30">
-        <v>-1389319</v>
-      </c>
-      <c r="G7" s="33">
-        <v>-0.02</v>
-      </c>
-      <c r="H7" s="40">
-        <v>22013000000</v>
-      </c>
-      <c r="I7" s="40">
-        <v>909000000</v>
-      </c>
-      <c r="J7" s="33">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="K7" s="31">
-        <v>3823</v>
-      </c>
-      <c r="L7" s="31">
-        <v>230</v>
-      </c>
-      <c r="M7" s="33">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="29">
-        <v>12</v>
-      </c>
-      <c r="C8" s="30">
-        <v>70489889</v>
-      </c>
-      <c r="D8" s="30">
-        <v>5874157</v>
-      </c>
-      <c r="E8" s="30">
-        <v>5933677</v>
-      </c>
-      <c r="F8" s="30">
-        <v>3124597</v>
-      </c>
-      <c r="G8" s="33">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H8" s="40">
-        <v>21104000000</v>
-      </c>
-      <c r="I8" s="40">
-        <v>1470000000</v>
-      </c>
-      <c r="J8" s="33">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K8" s="31">
-        <v>3593</v>
-      </c>
-      <c r="L8" s="31">
-        <v>95</v>
-      </c>
-      <c r="M8" s="33">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="29">
-        <v>12</v>
-      </c>
-      <c r="C9" s="30">
-        <v>67365292</v>
-      </c>
-      <c r="D9" s="30">
-        <v>5613774</v>
-      </c>
-      <c r="E9" s="30">
-        <v>5670377</v>
-      </c>
-      <c r="F9" s="30">
-        <v>5932824</v>
-      </c>
-      <c r="G9" s="33">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="H9" s="40">
-        <v>19634000000</v>
-      </c>
-      <c r="I9" s="40">
-        <v>1948000000</v>
-      </c>
-      <c r="J9" s="33">
-        <v>0.11</v>
-      </c>
-      <c r="K9" s="31">
-        <v>3497</v>
-      </c>
-      <c r="L9" s="31">
-        <v>43</v>
-      </c>
-      <c r="M9" s="33">
-        <v>1.2E-2</v>
+      <c r="F9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="29">
         <v>12</v>
       </c>
       <c r="C10" s="30">
-        <v>61432468</v>
+        <v>69100570</v>
       </c>
       <c r="D10" s="30">
-        <v>5119372</v>
+        <v>5758381</v>
       </c>
       <c r="E10" s="30">
-        <v>5326382</v>
+        <v>5539840</v>
       </c>
       <c r="F10" s="30">
-        <v>6114386</v>
+        <v>-1389319</v>
       </c>
       <c r="G10" s="33">
-        <v>0.111</v>
-      </c>
-      <c r="H10" s="40">
-        <v>17686000000</v>
-      </c>
-      <c r="I10" s="40">
-        <v>-152000000</v>
+        <v>-0.02</v>
+      </c>
+      <c r="H10" s="36">
+        <v>22013000000</v>
+      </c>
+      <c r="I10" s="36">
+        <v>909000000</v>
       </c>
       <c r="J10" s="33">
-        <v>-8.9999999999999993E-3</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="K10" s="31">
-        <v>3455</v>
+        <v>3823</v>
       </c>
       <c r="L10" s="31">
-        <v>-415</v>
+        <v>230</v>
       </c>
       <c r="M10" s="33">
-        <v>-0.107</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="29">
         <v>12</v>
       </c>
       <c r="C11" s="30">
-        <v>55318082</v>
+        <v>70489889</v>
       </c>
       <c r="D11" s="30">
-        <v>4609840</v>
+        <v>5874157</v>
       </c>
       <c r="E11" s="30">
-        <v>4574913</v>
+        <v>5933677</v>
       </c>
       <c r="F11" s="30">
-        <v>-896739</v>
+        <v>3124597</v>
       </c>
       <c r="G11" s="33">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="H11" s="40">
-        <v>17838000000</v>
-      </c>
-      <c r="I11" s="40">
-        <v>1708000000</v>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H11" s="36">
+        <v>21104000000</v>
+      </c>
+      <c r="I11" s="36">
+        <v>1470000000</v>
       </c>
       <c r="J11" s="33">
-        <v>0.106</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K11" s="31">
-        <v>3870</v>
+        <v>3593</v>
       </c>
       <c r="L11" s="31">
-        <v>426</v>
+        <v>95</v>
       </c>
       <c r="M11" s="33">
-        <v>0.124</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="29">
         <v>12</v>
       </c>
       <c r="C12" s="30">
-        <v>56214821</v>
+        <v>67365292</v>
       </c>
       <c r="D12" s="30">
-        <v>4684568</v>
+        <v>5613774</v>
       </c>
       <c r="E12" s="30">
-        <v>4675634</v>
+        <v>5670377</v>
       </c>
       <c r="F12" s="30">
-        <v>432775</v>
+        <v>5932824</v>
       </c>
       <c r="G12" s="33">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H12" s="40">
-        <v>16130000000</v>
-      </c>
-      <c r="I12" s="40">
-        <v>168000000</v>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H12" s="36">
+        <v>19634000000</v>
+      </c>
+      <c r="I12" s="36">
+        <v>1948000000</v>
       </c>
       <c r="J12" s="33">
-        <v>1.0999999999999999E-2</v>
+        <v>0.11</v>
       </c>
       <c r="K12" s="31">
-        <v>3443</v>
+        <v>3497</v>
       </c>
       <c r="L12" s="31">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="M12" s="33">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" s="29">
         <v>12</v>
       </c>
       <c r="C13" s="30">
-        <v>55782046</v>
+        <v>61432468</v>
       </c>
       <c r="D13" s="30">
-        <v>4648504</v>
+        <v>5119372</v>
       </c>
       <c r="E13" s="30">
-        <v>4661817</v>
+        <v>5326382</v>
       </c>
       <c r="F13" s="30">
-        <v>529664</v>
+        <v>6114386</v>
       </c>
       <c r="G13" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="H13" s="40">
-        <v>15962000000</v>
-      </c>
-      <c r="I13" s="40">
-        <v>2200000000</v>
+        <v>0.111</v>
+      </c>
+      <c r="H13" s="36">
+        <v>17686000000</v>
+      </c>
+      <c r="I13" s="36">
+        <v>-152000000</v>
       </c>
       <c r="J13" s="33">
-        <v>0.16</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="K13" s="31">
-        <v>3434</v>
+        <v>3455</v>
       </c>
       <c r="L13" s="31">
-        <v>445</v>
+        <v>-415</v>
       </c>
       <c r="M13" s="33">
-        <v>0.14899999999999999</v>
+        <v>-0.107</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" s="29">
         <v>12</v>
       </c>
       <c r="C14" s="30">
-        <v>55252382</v>
+        <v>55318082</v>
       </c>
       <c r="D14" s="30">
-        <v>4604365</v>
+        <v>4609840</v>
       </c>
       <c r="E14" s="30">
-        <v>4590502</v>
+        <v>4574913</v>
       </c>
       <c r="F14" s="30">
-        <v>-1278863</v>
+        <v>-896739</v>
       </c>
       <c r="G14" s="33">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="H14" s="40">
-        <v>13762000000</v>
-      </c>
-      <c r="I14" s="40">
-        <v>1296000000</v>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="H14" s="36">
+        <v>17838000000</v>
+      </c>
+      <c r="I14" s="36">
+        <v>1708000000</v>
       </c>
       <c r="J14" s="33">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="K14" s="31">
-        <v>2989</v>
+        <v>3870</v>
       </c>
       <c r="L14" s="31">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="M14" s="33">
-        <v>0.13</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="29">
         <v>12</v>
       </c>
       <c r="C15" s="30">
-        <v>56531245</v>
+        <v>56214821</v>
       </c>
       <c r="D15" s="30">
-        <v>4710937</v>
+        <v>4684568</v>
       </c>
       <c r="E15" s="30">
-        <v>4795444</v>
+        <v>4675634</v>
       </c>
       <c r="F15" s="30">
-        <v>4877033</v>
+        <v>432775</v>
       </c>
       <c r="G15" s="33">
-        <v>9.4E-2</v>
-      </c>
-      <c r="H15" s="40">
-        <v>12466000000</v>
-      </c>
-      <c r="I15" s="40">
-        <v>-201000000</v>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H15" s="36">
+        <v>16130000000</v>
+      </c>
+      <c r="I15" s="36">
+        <v>168000000</v>
       </c>
       <c r="J15" s="33">
-        <v>-1.6E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="K15" s="31">
-        <v>2646</v>
+        <v>3443</v>
       </c>
       <c r="L15" s="31">
-        <v>-297</v>
+        <v>9</v>
       </c>
       <c r="M15" s="33">
-        <v>-0.10100000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="29">
         <v>12</v>
       </c>
       <c r="C16" s="30">
-        <v>51654212</v>
+        <v>55782046</v>
       </c>
       <c r="D16" s="30">
-        <v>4304518</v>
+        <v>4648504</v>
       </c>
       <c r="E16" s="30">
-        <v>4495511</v>
+        <v>4661817</v>
       </c>
       <c r="F16" s="30">
-        <v>8567280</v>
+        <v>529664</v>
       </c>
       <c r="G16" s="33">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="H16" s="40">
-        <v>12667000000</v>
-      </c>
-      <c r="I16" s="40">
-        <v>1450000000</v>
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="36">
+        <v>15962000000</v>
+      </c>
+      <c r="I16" s="36">
+        <v>2200000000</v>
       </c>
       <c r="J16" s="33">
-        <v>0.129</v>
+        <v>0.16</v>
       </c>
       <c r="K16" s="31">
-        <v>2943</v>
+        <v>3434</v>
       </c>
       <c r="L16" s="31">
-        <v>-181</v>
+        <v>445</v>
       </c>
       <c r="M16" s="33">
-        <v>-5.8000000000000003E-2</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="29">
         <v>12</v>
       </c>
       <c r="C17" s="30">
-        <v>43086932</v>
+        <v>55252382</v>
       </c>
       <c r="D17" s="30">
-        <v>3590578</v>
+        <v>4604365</v>
       </c>
       <c r="E17" s="30">
-        <v>3585436</v>
+        <v>4590502</v>
       </c>
       <c r="F17" s="30">
-        <v>3267480</v>
+        <v>-1278863</v>
       </c>
       <c r="G17" s="33">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="H17" s="40">
-        <v>11217000000</v>
-      </c>
-      <c r="I17" s="40">
-        <v>1420000000</v>
+        <v>-2.3E-2</v>
+      </c>
+      <c r="H17" s="36">
+        <v>13762000000</v>
+      </c>
+      <c r="I17" s="36">
+        <v>1296000000</v>
       </c>
       <c r="J17" s="33">
-        <v>0.14499999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="K17" s="31">
-        <v>3124</v>
+        <v>2989</v>
       </c>
       <c r="L17" s="31">
-        <v>172</v>
+        <v>343</v>
       </c>
       <c r="M17" s="33">
-        <v>5.8000000000000003E-2</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B18" s="29">
         <v>12</v>
       </c>
       <c r="C18" s="30">
-        <v>39819452</v>
+        <v>56531245</v>
       </c>
       <c r="D18" s="30">
-        <v>3318288</v>
+        <v>4710937</v>
       </c>
       <c r="E18" s="30">
-        <v>3400026</v>
+        <v>4795444</v>
       </c>
       <c r="F18" s="30">
-        <v>3635580</v>
+        <v>4877033</v>
       </c>
       <c r="G18" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="H18" s="40">
-        <v>9797000000</v>
-      </c>
-      <c r="I18" s="40">
-        <v>5745531000</v>
+        <v>9.4E-2</v>
+      </c>
+      <c r="H18" s="36">
+        <v>12466000000</v>
+      </c>
+      <c r="I18" s="36">
+        <v>-201000000</v>
       </c>
       <c r="J18" s="33">
-        <v>1.4179999999999999</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="K18" s="31">
-        <v>2952</v>
+        <v>2646</v>
       </c>
       <c r="L18" s="31">
-        <v>1609</v>
+        <v>-297</v>
       </c>
       <c r="M18" s="33">
-        <v>1.1970000000000001</v>
+        <v>-0.10100000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" s="29">
         <v>12</v>
       </c>
       <c r="C19" s="30">
+        <v>51654212</v>
+      </c>
+      <c r="D19" s="30">
+        <v>4304518</v>
+      </c>
+      <c r="E19" s="30">
+        <v>4495511</v>
+      </c>
+      <c r="F19" s="30">
+        <v>8567280</v>
+      </c>
+      <c r="G19" s="33">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H19" s="36">
+        <v>12667000000</v>
+      </c>
+      <c r="I19" s="36">
+        <v>1450000000</v>
+      </c>
+      <c r="J19" s="33">
+        <v>0.129</v>
+      </c>
+      <c r="K19" s="31">
+        <v>2943</v>
+      </c>
+      <c r="L19" s="31">
+        <v>-181</v>
+      </c>
+      <c r="M19" s="33">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="29">
+        <v>12</v>
+      </c>
+      <c r="C20" s="30">
+        <v>43086932</v>
+      </c>
+      <c r="D20" s="30">
+        <v>3590578</v>
+      </c>
+      <c r="E20" s="30">
+        <v>3585436</v>
+      </c>
+      <c r="F20" s="30">
+        <v>3267480</v>
+      </c>
+      <c r="G20" s="33">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H20" s="36">
+        <v>11217000000</v>
+      </c>
+      <c r="I20" s="36">
+        <v>1420000000</v>
+      </c>
+      <c r="J20" s="33">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="K20" s="31">
+        <v>3124</v>
+      </c>
+      <c r="L20" s="31">
+        <v>172</v>
+      </c>
+      <c r="M20" s="33">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="29">
+        <v>12</v>
+      </c>
+      <c r="C21" s="30">
+        <v>39819452</v>
+      </c>
+      <c r="D21" s="30">
+        <v>3318288</v>
+      </c>
+      <c r="E21" s="30">
+        <v>3400026</v>
+      </c>
+      <c r="F21" s="30">
+        <v>3635580</v>
+      </c>
+      <c r="G21" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="36">
+        <v>9797000000</v>
+      </c>
+      <c r="I21" s="36">
+        <v>5745531000</v>
+      </c>
+      <c r="J21" s="33">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="K21" s="31">
+        <v>2952</v>
+      </c>
+      <c r="L21" s="31">
+        <v>1609</v>
+      </c>
+      <c r="M21" s="33">
+        <v>1.1970000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="29">
+        <v>12</v>
+      </c>
+      <c r="C22" s="30">
         <v>36183872</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D22" s="30">
         <v>3015323</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E22" s="30">
         <v>3045533</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="40">
+      <c r="F22" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="36">
         <v>4051469000</v>
       </c>
-      <c r="I19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="31">
+      <c r="I22" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="31">
         <v>1344</v>
       </c>
-      <c r="L19" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="L22" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>_xlfn.CONCAT("(2) Full-year Enrollment 2025 Estimate Represents YTD annualized. Months in YTD = ",B9,".")</f>
+        <v>(2) Full-year Enrollment 2025 Estimate Represents YTD annualized. Months in YTD = 3.</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>_xlfn.CONCAT("(3) FY25 full-year spending estimate is based an assumption of per capita spending growth = ",ROUND(G29*100,2),"%")</f>
+        <v>(3) FY25 full-year spending estimate is based an assumption of per capita spending growth = 2.4%</v>
+      </c>
+      <c r="G27" s="17">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="G29" s="17">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <f>_xlfn.CONCAT("(2) Full-year Enrollment 2025 Estimate Represents YTD annualized. Months in YTD = ",B6,".")</f>
-        <v>(2) Full-year Enrollment 2025 Estimate Represents YTD annualized. Months in YTD = 3.</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
-        <f>_xlfn.CONCAT("(3) FY25 full-year spending estimate is based an assumption of per capita spending growth = ",ROUND(A31*100,2),"%")</f>
-        <v>(3) FY25 full-year spending estimate is based an assumption of per capita spending growth = 2.4%</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="26" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
-        <v>4.36E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="17">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M19">
-    <sortCondition descending="1" ref="A6:A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:M22">
+    <sortCondition descending="1" ref="A9:A22"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="C2:E2"/>
@@ -4497,7 +4634,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4512,25 +4649,26 @@
     <col min="18" max="18" width="11.5" customWidth="1"/>
     <col min="19" max="19" width="17.5" customWidth="1"/>
     <col min="20" max="20" width="10.5" customWidth="1"/>
+    <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="16:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="54"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="63"/>
     </row>
     <row r="3" spans="16:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="P3" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="57"/>
+      <c r="P3" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="66"/>
     </row>
     <row r="4" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P4" s="19"/>
@@ -4539,12 +4677,12 @@
       <c r="S4" s="21"/>
     </row>
     <row r="5" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P5" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="51"/>
+      <c r="P5" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
     </row>
     <row r="6" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P6" s="10" t="s">
@@ -4586,12 +4724,12 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P10" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="51"/>
+      <c r="P10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="60"/>
     </row>
     <row r="11" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P11" s="10" t="s">
@@ -4633,157 +4771,153 @@
       <c r="S14" s="21"/>
     </row>
     <row r="15" spans="16:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P15" s="46" t="s">
+      <c r="P15" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="48"/>
-    </row>
-    <row r="16" spans="16:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="P16" s="58" t="s">
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="57"/>
+    </row>
+    <row r="16" spans="16:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="37" t="s">
         <v>17</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
-    </row>
-    <row r="18" spans="16:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="P18" s="18">
+    <row r="17" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="54"/>
+    </row>
+    <row r="18" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="52"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="54"/>
+    </row>
+    <row r="19" spans="16:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="18">
         <v>4.36E-2</v>
       </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P19" s="8"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P20" s="22" t="s">
+      <c r="Q20" s="7"/>
+      <c r="R20" s="46">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="8"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="16:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="16:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="P21" s="18">
-        <v>2.4E-2</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R21" s="7"/>
-      <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P22" s="8"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P23" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="S23" s="9"/>
-    </row>
-    <row r="24" spans="16:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="R24" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="S24" s="61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="16:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="P25" s="11" t="str" cm="1">
-        <f t="array" ref="P25:P29">projection_data!B15:B19</f>
+    </row>
+    <row r="24" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="11" t="str" cm="1">
+        <f t="array" ref="P24:P28">projection_data!B15:B19</f>
         <v>FY25</v>
       </c>
-      <c r="Q25" s="12" cm="1">
-        <f t="array" ref="Q25:Q29">projection_data!K15:K19</f>
+      <c r="Q24" s="12" cm="1">
+        <f t="array" ref="Q24:Q28">projection_data!K15:K19</f>
         <v>6009446.4116000002</v>
       </c>
-      <c r="R25" s="64" cm="1">
-        <f t="array" ref="R25:R29">projection_data!M15:M19</f>
+      <c r="R24" s="43" cm="1">
+        <f t="array" ref="R24:R28">projection_data!M15:M19</f>
         <v>3914.752</v>
       </c>
-      <c r="S25" s="62" cm="1">
-        <f t="array" ref="S25:S29">projection_data!H15:H19</f>
+      <c r="S24" s="41" cm="1">
+        <f t="array" ref="S24:S28">projection_data!H15:H19</f>
         <v>23525492358.703922</v>
       </c>
     </row>
-    <row r="26" spans="16:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="11" t="str">
+        <v>FY26</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>6271458.2751457607</v>
+      </c>
+      <c r="R25" s="43">
+        <v>4008.706048</v>
+      </c>
+      <c r="S25" s="41">
+        <v>25140432717.356461</v>
+      </c>
+    </row>
+    <row r="26" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P26" s="11" t="str">
-        <v>FY26</v>
+        <v>FY27</v>
       </c>
       <c r="Q26" s="12">
-        <v>6271458.2751457607</v>
-      </c>
-      <c r="R26" s="64">
-        <v>4008.706048</v>
-      </c>
-      <c r="S26" s="62">
-        <v>25140432717.356461</v>
-      </c>
-    </row>
-    <row r="27" spans="16:19" ht="16" x14ac:dyDescent="0.2">
+        <v>6544893.8559421161</v>
+      </c>
+      <c r="R26" s="43">
+        <v>4104.9149931520005</v>
+      </c>
+      <c r="S26" s="41">
+        <v>26866232917.845203</v>
+      </c>
+    </row>
+    <row r="27" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P27" s="11" t="str">
-        <v>FY27</v>
+        <v>FY28</v>
       </c>
       <c r="Q27" s="12">
-        <v>6544893.8559421161</v>
-      </c>
-      <c r="R27" s="64">
-        <v>4104.9149931520005</v>
-      </c>
-      <c r="S27" s="62">
-        <v>26866232917.845203</v>
-      </c>
-    </row>
-    <row r="28" spans="16:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="P28" s="11" t="str">
-        <v>FY28</v>
-      </c>
-      <c r="Q28" s="12">
         <v>6830251.2280611927</v>
       </c>
-      <c r="R28" s="64">
+      <c r="R27" s="43">
         <v>4203.4329529876486</v>
       </c>
-      <c r="S28" s="62">
+      <c r="S27" s="41">
         <v>28710503089.216774</v>
       </c>
     </row>
-    <row r="29" spans="16:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P29" s="13" t="str">
+    <row r="28" spans="16:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="13" t="str">
         <v>FY29</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q28" s="14">
         <v>7128050.181604661</v>
       </c>
-      <c r="R29" s="65">
+      <c r="R28" s="44">
         <v>4304.3153438593527</v>
       </c>
-      <c r="S29" s="63">
+      <c r="S28" s="42">
         <v>30681375768.480389</v>
       </c>
     </row>
+    <row r="29" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="16:19" x14ac:dyDescent="0.2"/>
     <row r="31" spans="16:19" x14ac:dyDescent="0.2"/>
     <row r="32" spans="16:19" x14ac:dyDescent="0.2"/>
@@ -4802,7 +4936,8 @@
     <row r="45" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="P17:S18"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="P2:S2"/>
@@ -4822,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4846,7 +4981,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4876,10 +5011,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
@@ -4893,10 +5028,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -4920,10 +5055,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -4968,10 +5103,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -5016,10 +5151,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -5064,10 +5199,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -5112,10 +5247,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -5160,10 +5295,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -5208,10 +5343,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -5256,10 +5391,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -5304,10 +5439,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -5352,10 +5487,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -5400,10 +5535,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -5448,10 +5583,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5496,14 +5631,14 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
-        <f>(1+Graph!$P$18)*projection_data!D14</f>
+        <f>(1+Graph!$P$20)*projection_data!D14</f>
         <v>72113354.852000013</v>
       </c>
       <c r="E15" s="5"/>
@@ -5514,25 +5649,25 @@
         <v>23525492358.703922</v>
       </c>
       <c r="K15" s="5">
-        <f>(1+Graph!$P$18)*projection_data!K14</f>
+        <f>(1+Graph!$P$20)*projection_data!K14</f>
         <v>6009446.4116000002</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="6">
-        <f>(1+Graph!$P$21)*M14</f>
+        <f>(1+Graph!$R$20)*M14</f>
         <v>3914.752</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <f>(1+Graph!$P$18)*D15</f>
+        <f>(1+Graph!$P$20)*D15</f>
         <v>75257497.123547226</v>
       </c>
       <c r="E16" s="5"/>
@@ -5543,54 +5678,54 @@
         <v>25140432717.356461</v>
       </c>
       <c r="K16" s="5">
-        <f>(1+Graph!$P$18)*K15</f>
+        <f>(1+Graph!$P$20)*K15</f>
         <v>6271458.2751457607</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="6">
-        <f>(1+Graph!$P$21)*M15</f>
+        <f>(1+Graph!$R$20)*M15</f>
         <v>4008.706048</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
-        <f>(1+Graph!$P$18)*D16</f>
+        <f>(1+Graph!$P$20)*D16</f>
         <v>78538723.998133898</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
+        <f>K17*M17</f>
         <v>26866232917.845203</v>
       </c>
       <c r="K17" s="5">
-        <f>(1+Graph!$P$18)*K16</f>
+        <f>(1+Graph!$P$20)*K16</f>
         <v>6544893.8559421161</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="6">
-        <f>(1+Graph!$P$21)*M16</f>
+        <f>(1+Graph!$R$20)*M16</f>
         <v>4104.9149931520005</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
-        <f>(1+Graph!$P$18)*D17</f>
+        <f>(1+Graph!$P$20)*D17</f>
         <v>81963012.364452541</v>
       </c>
       <c r="E18" s="5"/>
@@ -5601,25 +5736,25 @@
         <v>28710503089.216774</v>
       </c>
       <c r="K18" s="5">
-        <f>(1+Graph!$P$18)*K17</f>
+        <f>(1+Graph!$P$20)*K17</f>
         <v>6830251.2280611927</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="6">
-        <f>(1+Graph!$P$21)*M17</f>
+        <f>(1+Graph!$R$20)*M17</f>
         <v>4203.4329529876486</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
-        <f>(1+Graph!$P$18)*D18</f>
+        <f>(1+Graph!$P$20)*D18</f>
         <v>85536599.70354268</v>
       </c>
       <c r="E19" s="5"/>
@@ -5630,16 +5765,17 @@
         <v>30681375768.480389</v>
       </c>
       <c r="K19" s="5">
-        <f>(1+Graph!$P$18)*K18</f>
+        <f>(1+Graph!$P$20)*K18</f>
         <v>7128050.181604661</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="6">
-        <f>(1+Graph!$P$21)*M18</f>
+        <f>(1+Graph!$R$20)*M18</f>
         <v>4304.3153438593527</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:O14">
     <sortCondition ref="B2:B14"/>
   </sortState>

--- a/mmc_enrollment_vs_spending.xlsx
+++ b/mmc_enrollment_vs_spending.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaac/Documents/RProjects/s2p_data_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D79843-3777-9548-9CB5-958D16CCC3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFC7074-F341-7643-8930-0A0004056F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,7 +1098,6 @@
     <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="3" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,6 +1134,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent4" xfId="11" builtinId="42"/>
@@ -3596,7 +3598,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3607,42 +3609,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
@@ -4634,7 +4636,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4655,20 +4657,20 @@
   <sheetData>
     <row r="1" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="16:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="63"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="62"/>
     </row>
     <row r="3" spans="16:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="P3" s="64" t="s">
+      <c r="P3" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="66"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P4" s="19"/>
@@ -4677,12 +4679,12 @@
       <c r="S4" s="21"/>
     </row>
     <row r="5" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="59"/>
     </row>
     <row r="6" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P6" s="10" t="s">
@@ -4724,12 +4726,12 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P10" s="58" t="s">
+      <c r="P10" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="60"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="59"/>
     </row>
     <row r="11" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P11" s="10" t="s">
@@ -4771,12 +4773,12 @@
       <c r="S14" s="21"/>
     </row>
     <row r="15" spans="16:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="56"/>
     </row>
     <row r="16" spans="16:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="P16" s="37" t="s">
@@ -4787,18 +4789,18 @@
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="54"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="53"/>
     </row>
     <row r="18" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P18" s="52"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="54"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="53"/>
     </row>
     <row r="19" spans="16:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P19" s="22" t="s">
@@ -4814,7 +4816,7 @@
         <v>4.36E-2</v>
       </c>
       <c r="Q20" s="7"/>
-      <c r="R20" s="46">
+      <c r="R20" s="66">
         <v>2.4E-2</v>
       </c>
       <c r="S20" s="9"/>

--- a/mmc_enrollment_vs_spending.xlsx
+++ b/mmc_enrollment_vs_spending.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaac/Documents/RProjects/s2p_data_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFC7074-F341-7643-8930-0A0004056F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6B98AF-5AB8-6C45-A337-B996CF3F0DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -68,21 +68,12 @@
     <t>Enrollee Months</t>
   </si>
   <si>
-    <t>Average Monthly Change %</t>
-  </si>
-  <si>
     <t>Enrollee Months Annual Change</t>
   </si>
   <si>
-    <t>Enrollee Months Annual Change %</t>
-  </si>
-  <si>
     <t>State Spending</t>
   </si>
   <si>
-    <t>State Spending Annual Change</t>
-  </si>
-  <si>
     <t>State Spending Annual Change %</t>
   </si>
   <si>
@@ -201,21 +192,6 @@
   </si>
   <si>
     <t>State Spending Annual Change (Millions)</t>
-  </si>
-  <si>
-    <t>FY25</t>
-  </si>
-  <si>
-    <t>FY26</t>
-  </si>
-  <si>
-    <t>FY27</t>
-  </si>
-  <si>
-    <t>FY28</t>
-  </si>
-  <si>
-    <t>FY29</t>
   </si>
   <si>
     <t>Average Annual Growth Rates (as of FY24)</t>
@@ -1027,9 +1003,6 @@
   </cellStyleXfs>
   <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1045,9 +1018,6 @@
     <xf numFmtId="165" fontId="8" fillId="3" borderId="18" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1098,6 +1068,15 @@
     <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="3" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,9 +1113,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent4" xfId="11" builtinId="42"/>
@@ -1152,7 +1128,63 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1484,63 +1516,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>projection_data!$K$2:$K$19</c:f>
+              <c:f>projection_data!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3015323</c:v>
+                  <c:v>3015325.91666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3318288</c:v>
+                  <c:v>3318293.66666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3590578</c:v>
+                  <c:v>3590581</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4304518</c:v>
+                  <c:v>4304502.9166666605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4710937</c:v>
+                  <c:v>4710904.1666666605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4604365</c:v>
+                  <c:v>4604302.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4648504</c:v>
+                  <c:v>4648351.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4684568</c:v>
+                  <c:v>4684269</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4609840</c:v>
+                  <c:v>4609283.3333333302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5119372</c:v>
+                  <c:v>5118244.9166666605</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5613774</c:v>
+                  <c:v>5611767</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5874157</c:v>
+                  <c:v>5870984.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5758381</c:v>
+                  <c:v>5750162.4166666605</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>6009446.4116000002</c:v>
+                  <c:v>5999144.4493083265</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>6271458.2751457607</c:v>
+                  <c:v>6258907.4039633768</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>6544893.8559421161</c:v>
+                  <c:v>6529918.0945549905</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>6830251.2280611927</c:v>
+                  <c:v>6812663.5480492208</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>7128050.181604661</c:v>
+                  <c:v>7107651.8796797516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,7 +1603,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>projection_data!$H$1</c:f>
+              <c:f>projection_data!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1872,7 +1904,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>projection_data!$H$2:$H$19</c:f>
+              <c:f>projection_data!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1916,19 +1948,19 @@
                   <c:v>22013000000</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
-                  <c:v>23525492358.703922</c:v>
+                  <c:v>23524240658.469936</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
-                  <c:v>25140432717.356461</c:v>
+                  <c:v>25139231297.760937</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
-                  <c:v>26866232917.845203</c:v>
+                  <c:v>26865094581.268764</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
-                  <c:v>28710503089.216774</c:v>
+                  <c:v>28709442158.829994</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
-                  <c:v>30681375768.480389</c:v>
+                  <c:v>30680408236.711994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,6 +3340,22 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66E7D33D-54A7-E54F-9360-7E4950789BDC}" name="Table1" displayName="Table1" ref="A1:G14" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:G14" xr:uid="{66E7D33D-54A7-E54F-9360-7E4950789BDC}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CF27716F-5074-3346-8523-72F1900144BD}" name="Data  Type"/>
+    <tableColumn id="2" xr3:uid="{C96BD2F9-89B3-A14C-81FC-E3A8DFCC8429}" name="Fiscal Year"/>
+    <tableColumn id="3" xr3:uid="{01CACE81-45D7-7446-B728-9B2B83E78B79}" name="State Spending" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{06BEE8CE-98D5-CA4D-9416-5950D90F162E}" name="Average Annual Enrollment" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3EADD39B-572C-DC49-936D-3495F631C368}" name="Average Annual Enrollment Change %" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{2153D761-E319-9740-9788-8F81F69BBF9E}" name="Average Annual Spending per Enrollee" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{009E49B7-E7EF-3B4A-845E-8634520B2845}" name="Average Annual Spending per Enrollee Annual Change %" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3598,7 +3646,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3609,1011 +3657,1011 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="A1" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+    </row>
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48" t="s">
+      <c r="E3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-    </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="L3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="27" t="s">
+    </row>
+    <row r="4" spans="1:13" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="28">
+        <f t="shared" ref="C4:C7" si="0">D4*12</f>
+        <v>85291822.556157023</v>
+      </c>
+      <c r="D4" s="28">
+        <f>(1+$G$27)*D5</f>
+        <v>7107651.8796797516</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="28">
+        <f>C4-C5</f>
+        <v>3539859.9795663655</v>
+      </c>
+      <c r="G4" s="30">
+        <f>F4/C5</f>
+        <v>4.329999999999988E-2</v>
+      </c>
+      <c r="H4" s="34">
+        <f>K4*D4</f>
+        <v>30680408236.711994</v>
+      </c>
+      <c r="I4" s="34">
+        <f>H4-H5</f>
+        <v>1970966077.882</v>
+      </c>
+      <c r="J4" s="31">
+        <f>I4/H5</f>
+        <v>6.8652189999999752E-2</v>
+      </c>
+      <c r="K4" s="29">
+        <f>(1+M4)*K5</f>
+        <v>4316.532204457706</v>
+      </c>
+      <c r="L4" s="29">
+        <f>K4-K5</f>
+        <v>102.40333161019407</v>
+      </c>
+      <c r="M4" s="30">
+        <f>$G$29</f>
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="28">
+        <f t="shared" si="0"/>
+        <v>81751962.576590657</v>
+      </c>
+      <c r="D5" s="28">
+        <f>(1+$G$27)*D6</f>
+        <v>6812663.5480492208</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="28">
+        <f>C5-C6</f>
+        <v>3392945.4419307709</v>
+      </c>
+      <c r="G5" s="30">
+        <f>F5/C6</f>
+        <v>4.329999999999997E-2</v>
+      </c>
+      <c r="H5" s="34">
+        <f>K5*D5</f>
+        <v>28709442158.829994</v>
+      </c>
+      <c r="I5" s="34">
+        <f>H5-H6</f>
+        <v>1844347577.5612297</v>
+      </c>
+      <c r="J5" s="31">
+        <f>I5/H6</f>
+        <v>6.8652189999999849E-2</v>
+      </c>
+      <c r="K5" s="29">
+        <f>(1+M5)*K6</f>
+        <v>4214.128872847512</v>
+      </c>
+      <c r="L5" s="29">
+        <f>K5-K6</f>
+        <v>99.973964278233325</v>
+      </c>
+      <c r="M5" s="30">
+        <f>$G$29</f>
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="28">
+        <f t="shared" si="0"/>
+        <v>78359017.134659886</v>
+      </c>
+      <c r="D6" s="28">
+        <f>(1+$G$27)*D7</f>
+        <v>6529918.0945549905</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="28">
+        <f>C6-C7</f>
+        <v>3252128.2870993614</v>
+      </c>
+      <c r="G6" s="30">
+        <f>F6/C7</f>
+        <v>4.3299999999999873E-2</v>
+      </c>
+      <c r="H6" s="34">
+        <f>K6*D6</f>
+        <v>26865094581.268764</v>
+      </c>
+      <c r="I6" s="34">
+        <f>H6-H7</f>
+        <v>1725863283.5078278</v>
+      </c>
+      <c r="J6" s="31">
+        <f>I6/H7</f>
+        <v>6.8652189999999891E-2</v>
+      </c>
+      <c r="K6" s="29">
+        <f>(1+M6)*K7</f>
+        <v>4114.1549085692786</v>
+      </c>
+      <c r="L6" s="29">
+        <f>K6-K7</f>
+        <v>97.602230087116368</v>
+      </c>
+      <c r="M6" s="30">
+        <f>$G$29</f>
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="27" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28">
+        <f t="shared" si="0"/>
+        <v>75106888.847560525</v>
+      </c>
+      <c r="D7" s="28">
+        <f>(1+$G$27)*D8</f>
+        <v>6258907.4039633768</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="28">
+        <f>C7-C8</f>
+        <v>3117155.4558606148</v>
+      </c>
+      <c r="G7" s="30">
+        <f>F7/C8</f>
+        <v>4.3300000000000123E-2</v>
+      </c>
+      <c r="H7" s="34">
+        <f>K7*D7</f>
+        <v>25139231297.760937</v>
+      </c>
+      <c r="I7" s="34">
+        <f>H7-H8</f>
+        <v>1614990639.2910004</v>
+      </c>
+      <c r="J7" s="31">
+        <f>I7/H8</f>
+        <v>6.8652189999999877E-2</v>
+      </c>
+      <c r="K7" s="29">
+        <f>(1+M7)*K8</f>
+        <v>4016.5526784821623</v>
+      </c>
+      <c r="L7" s="29">
+        <f>K7-K8</f>
+        <v>95.286761775960713</v>
+      </c>
+      <c r="M7" s="30">
+        <f>$G$29</f>
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="27" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28">
+        <f>D8*12</f>
+        <v>71989733.39169991</v>
+      </c>
+      <c r="D8" s="28">
+        <f>(1+$G$27)*D10</f>
+        <v>5999144.4493083265</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="28">
+        <f>C8-C10</f>
+        <v>2987784.3916999102</v>
+      </c>
+      <c r="G8" s="31">
+        <f>F8/C10</f>
+        <v>4.3299999999998701E-2</v>
+      </c>
+      <c r="H8" s="34">
+        <f>K8*D8</f>
+        <v>23524240658.469936</v>
+      </c>
+      <c r="I8" s="34">
+        <f>H8-H10</f>
+        <v>1511240658.4699364</v>
+      </c>
+      <c r="J8" s="31">
+        <f>I8/H10</f>
+        <v>6.8652189999997115E-2</v>
+      </c>
+      <c r="K8" s="29">
+        <f>(1+M8)*K10</f>
+        <v>3921.2659167062016</v>
+      </c>
+      <c r="L8" s="29">
+        <f>K8-K10</f>
+        <v>93.026224520121559</v>
+      </c>
+      <c r="M8" s="30">
+        <f>$G$29</f>
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="30">
-        <f t="shared" ref="C4:C7" si="0">D4*12</f>
-        <v>85536602.179255933</v>
-      </c>
-      <c r="D4" s="30">
-        <f>(1+$G$27)*D5</f>
-        <v>7128050.181604661</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="30">
-        <f>C4-C5</f>
-        <v>3573587.4425216168</v>
-      </c>
-      <c r="G4" s="32">
-        <f>F4/C5</f>
-        <v>4.3600000000000007E-2</v>
-      </c>
-      <c r="H4" s="36">
-        <f>K4*D4</f>
-        <v>30681375768.480389</v>
-      </c>
-      <c r="I4" s="36">
-        <f>H4-H5</f>
-        <v>1970872679.2636147</v>
-      </c>
-      <c r="J4" s="33">
-        <f>I4/H5</f>
-        <v>6.8646400000000149E-2</v>
-      </c>
-      <c r="K4" s="31">
-        <f>(1+M4)*K5</f>
-        <v>4304.3153438593527</v>
-      </c>
-      <c r="L4" s="31">
-        <f>K4-K5</f>
-        <v>100.88239087170405</v>
-      </c>
-      <c r="M4" s="32">
-        <f>$G$29</f>
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="30">
-        <f t="shared" si="0"/>
-        <v>81963014.736734316</v>
-      </c>
-      <c r="D5" s="30">
-        <f>(1+$G$27)*D6</f>
-        <v>6830251.2280611927</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="30">
-        <f>C5-C6</f>
-        <v>3424288.4654289186</v>
-      </c>
-      <c r="G5" s="32">
-        <f>F5/C6</f>
-        <v>4.3600000000000042E-2</v>
-      </c>
-      <c r="H5" s="36">
-        <f>K5*D5</f>
-        <v>28710503089.216774</v>
-      </c>
-      <c r="I5" s="36">
-        <f>H5-H6</f>
-        <v>1844270171.3715706</v>
-      </c>
-      <c r="J5" s="33">
-        <f>I5/H6</f>
-        <v>6.8646400000000066E-2</v>
-      </c>
-      <c r="K5" s="31">
-        <f>(1+M5)*K6</f>
-        <v>4203.4329529876486</v>
-      </c>
-      <c r="L5" s="31">
-        <f>K5-K6</f>
-        <v>98.517959835648071</v>
-      </c>
-      <c r="M5" s="32">
-        <f>$G$29</f>
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="30">
-        <f t="shared" si="0"/>
-        <v>78538726.271305397</v>
-      </c>
-      <c r="D6" s="30">
-        <f>(1+$G$27)*D7</f>
-        <v>6544893.8559421161</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="30">
-        <f>C6-C7</f>
-        <v>3281226.969556272</v>
-      </c>
-      <c r="G6" s="32">
-        <f>F6/C7</f>
-        <v>4.3600000000000139E-2</v>
-      </c>
-      <c r="H6" s="36">
-        <f>K6*D6</f>
-        <v>26866232917.845203</v>
-      </c>
-      <c r="I6" s="36">
-        <f>H6-H7</f>
-        <v>1725800200.4887428</v>
-      </c>
-      <c r="J6" s="33">
-        <f>I6/H7</f>
-        <v>6.8646400000000177E-2</v>
-      </c>
-      <c r="K6" s="31">
-        <f>(1+M6)*K7</f>
-        <v>4104.9149931520005</v>
-      </c>
-      <c r="L6" s="31">
-        <f>K6-K7</f>
-        <v>96.208945152000524</v>
-      </c>
-      <c r="M6" s="32">
-        <f>$G$29</f>
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="B9" s="27">
+        <v>5</v>
+      </c>
+      <c r="C9" s="28">
+        <v>25556588</v>
+      </c>
+      <c r="D9" s="28">
+        <v>5111317.5999999996</v>
+      </c>
+      <c r="E9" s="28">
+        <v>5035153</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30">
-        <f t="shared" si="0"/>
-        <v>75257499.301749125</v>
-      </c>
-      <c r="D7" s="30">
-        <f>(1+$G$27)*D8</f>
-        <v>6271458.2751457607</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="30">
-        <f>C7-C8</f>
-        <v>3144142.3625491261</v>
-      </c>
-      <c r="G7" s="32">
-        <f>F7/C8</f>
-        <v>4.3600000000000083E-2</v>
-      </c>
-      <c r="H7" s="36">
-        <f>K7*D7</f>
-        <v>25140432717.356461</v>
-      </c>
-      <c r="I7" s="36">
-        <f>H7-H8</f>
-        <v>1614940358.6525383</v>
-      </c>
-      <c r="J7" s="33">
-        <f>I7/H8</f>
-        <v>6.8646400000000232E-2</v>
-      </c>
-      <c r="K7" s="31">
-        <f>(1+M7)*K8</f>
-        <v>4008.706048</v>
-      </c>
-      <c r="L7" s="31">
-        <f>K7-K8</f>
-        <v>93.954048000000057</v>
-      </c>
-      <c r="M7" s="32">
-        <f>$G$29</f>
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="B10" s="27">
+        <v>12</v>
+      </c>
+      <c r="C10" s="28">
+        <v>69001949</v>
+      </c>
+      <c r="D10" s="28">
+        <v>5750162.4166666605</v>
+      </c>
+      <c r="E10" s="28">
+        <v>5529750</v>
+      </c>
+      <c r="F10" s="28">
+        <v>-1449865</v>
+      </c>
+      <c r="G10" s="31">
+        <v>-2.05795268805995E-2</v>
+      </c>
+      <c r="H10" s="34">
+        <v>22013000000</v>
+      </c>
+      <c r="I10" s="34">
+        <v>909000000</v>
+      </c>
+      <c r="J10" s="31">
+        <v>4.3072403335860501E-2</v>
+      </c>
+      <c r="K10" s="29">
+        <v>3828.23969218608</v>
+      </c>
+      <c r="L10" s="29">
+        <v>233.61259003652299</v>
+      </c>
+      <c r="M10" s="31">
+        <v>6.4989380928225995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30">
-        <f>D8*12</f>
-        <v>72113356.939199999</v>
-      </c>
-      <c r="D8" s="30">
-        <f>(1+$G$27)*D10</f>
-        <v>6009446.4116000002</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="30">
-        <f>C8-C10</f>
-        <v>3012786.939199999</v>
-      </c>
-      <c r="G8" s="33">
-        <f>F8/C10</f>
-        <v>4.36000302052501E-2</v>
-      </c>
-      <c r="H8" s="36">
-        <f>K8*D8</f>
-        <v>23525492358.703922</v>
-      </c>
-      <c r="I8" s="36">
-        <f>H8-H10</f>
-        <v>1512492358.7039223</v>
-      </c>
-      <c r="J8" s="33">
-        <f>I8/H10</f>
-        <v>6.870905186498534E-2</v>
-      </c>
-      <c r="K8" s="31">
-        <f>(1+M8)*K10</f>
-        <v>3914.752</v>
-      </c>
-      <c r="L8" s="31">
-        <f>K8-K10</f>
-        <v>91.751999999999953</v>
-      </c>
-      <c r="M8" s="32">
-        <f>$G$29</f>
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="B11" s="27">
+        <v>12</v>
+      </c>
+      <c r="C11" s="28">
+        <v>70451814</v>
+      </c>
+      <c r="D11" s="28">
+        <v>5870984.5</v>
+      </c>
+      <c r="E11" s="28">
+        <v>5930022</v>
+      </c>
+      <c r="F11" s="28">
+        <v>3110610</v>
+      </c>
+      <c r="G11" s="31">
+        <v>4.61917788104887E-2</v>
+      </c>
+      <c r="H11" s="34">
+        <v>21104000000</v>
+      </c>
+      <c r="I11" s="34">
+        <v>1470000000</v>
+      </c>
+      <c r="J11" s="31">
+        <v>7.4870123255577001E-2</v>
+      </c>
+      <c r="K11" s="29">
+        <v>3594.62710214956</v>
+      </c>
+      <c r="L11" s="29">
+        <v>95.907358439604593</v>
+      </c>
+      <c r="M11" s="31">
+        <v>2.74121294259216E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="29">
-        <v>3</v>
-      </c>
-      <c r="C9" s="30">
-        <v>15521401</v>
-      </c>
-      <c r="D9" s="30">
-        <v>5173800</v>
-      </c>
-      <c r="E9" s="30">
-        <v>5098780</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="B12" s="27">
+        <v>12</v>
+      </c>
+      <c r="C12" s="28">
+        <v>67341204</v>
+      </c>
+      <c r="D12" s="28">
+        <v>5611767</v>
+      </c>
+      <c r="E12" s="28">
+        <v>5668142</v>
+      </c>
+      <c r="F12" s="28">
+        <v>5922265</v>
+      </c>
+      <c r="G12" s="31">
+        <v>9.6424085085546604E-2</v>
+      </c>
+      <c r="H12" s="34">
+        <v>19634000000</v>
+      </c>
+      <c r="I12" s="34">
+        <v>1948000000</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0.110143616419767</v>
+      </c>
+      <c r="K12" s="29">
+        <v>3498.7197437099499</v>
+      </c>
+      <c r="L12" s="29">
+        <v>43.238365238083098</v>
+      </c>
+      <c r="M12" s="31">
+        <v>1.25129788015829E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B13" s="27">
         <v>12</v>
       </c>
-      <c r="C10" s="30">
-        <v>69100570</v>
-      </c>
-      <c r="D10" s="30">
-        <v>5758381</v>
-      </c>
-      <c r="E10" s="30">
-        <v>5539840</v>
-      </c>
-      <c r="F10" s="30">
-        <v>-1389319</v>
-      </c>
-      <c r="G10" s="33">
-        <v>-0.02</v>
-      </c>
-      <c r="H10" s="36">
-        <v>22013000000</v>
-      </c>
-      <c r="I10" s="36">
-        <v>909000000</v>
-      </c>
-      <c r="J10" s="33">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="K10" s="31">
-        <v>3823</v>
-      </c>
-      <c r="L10" s="31">
-        <v>230</v>
-      </c>
-      <c r="M10" s="33">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="C13" s="28">
+        <v>61418939</v>
+      </c>
+      <c r="D13" s="28">
+        <v>5118244.9166666605</v>
+      </c>
+      <c r="E13" s="28">
+        <v>5325115</v>
+      </c>
+      <c r="F13" s="28">
+        <v>6107539</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0.11042098012344601</v>
+      </c>
+      <c r="H13" s="34">
+        <v>17686000000</v>
+      </c>
+      <c r="I13" s="34">
+        <v>-152000000</v>
+      </c>
+      <c r="J13" s="31">
+        <v>-8.5211346563515995E-3</v>
+      </c>
+      <c r="K13" s="29">
+        <v>3455.4813784718699</v>
+      </c>
+      <c r="L13" s="29">
+        <v>-414.53456760795598</v>
+      </c>
+      <c r="M13" s="31">
+        <v>-0.10711443399293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B14" s="27">
         <v>12</v>
       </c>
-      <c r="C11" s="30">
-        <v>70489889</v>
-      </c>
-      <c r="D11" s="30">
-        <v>5874157</v>
-      </c>
-      <c r="E11" s="30">
-        <v>5933677</v>
-      </c>
-      <c r="F11" s="30">
-        <v>3124597</v>
-      </c>
-      <c r="G11" s="33">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H11" s="36">
-        <v>21104000000</v>
-      </c>
-      <c r="I11" s="36">
-        <v>1470000000</v>
-      </c>
-      <c r="J11" s="33">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K11" s="31">
-        <v>3593</v>
-      </c>
-      <c r="L11" s="31">
-        <v>95</v>
-      </c>
-      <c r="M11" s="33">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="C14" s="28">
+        <v>55311400</v>
+      </c>
+      <c r="D14" s="28">
+        <v>4609283.3333333302</v>
+      </c>
+      <c r="E14" s="28">
+        <v>4574317</v>
+      </c>
+      <c r="F14" s="28">
+        <v>-899828</v>
+      </c>
+      <c r="G14" s="31">
+        <v>-1.6007976200057301E-2</v>
+      </c>
+      <c r="H14" s="34">
+        <v>17838000000</v>
+      </c>
+      <c r="I14" s="34">
+        <v>1708000000</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0.105889646621202</v>
+      </c>
+      <c r="K14" s="29">
+        <v>3870.01594607983</v>
+      </c>
+      <c r="L14" s="29">
+        <v>426.57578497892098</v>
+      </c>
+      <c r="M14" s="31">
+        <v>0.12388070215297101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B15" s="27">
         <v>12</v>
       </c>
-      <c r="C12" s="30">
-        <v>67365292</v>
-      </c>
-      <c r="D12" s="30">
-        <v>5613774</v>
-      </c>
-      <c r="E12" s="30">
-        <v>5670377</v>
-      </c>
-      <c r="F12" s="30">
-        <v>5932824</v>
-      </c>
-      <c r="G12" s="33">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="H12" s="36">
-        <v>19634000000</v>
-      </c>
-      <c r="I12" s="36">
-        <v>1948000000</v>
-      </c>
-      <c r="J12" s="33">
-        <v>0.11</v>
-      </c>
-      <c r="K12" s="31">
-        <v>3497</v>
-      </c>
-      <c r="L12" s="31">
-        <v>43</v>
-      </c>
-      <c r="M12" s="33">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="C15" s="28">
+        <v>56211228</v>
+      </c>
+      <c r="D15" s="28">
+        <v>4684269</v>
+      </c>
+      <c r="E15" s="28">
+        <v>4675291</v>
+      </c>
+      <c r="F15" s="28">
+        <v>431007</v>
+      </c>
+      <c r="G15" s="31">
+        <v>7.7268786726391696E-3</v>
+      </c>
+      <c r="H15" s="34">
+        <v>16130000000</v>
+      </c>
+      <c r="I15" s="34">
+        <v>168000000</v>
+      </c>
+      <c r="J15" s="31">
+        <v>1.05249968675604E-2</v>
+      </c>
+      <c r="K15" s="29">
+        <v>3443.4401611009098</v>
+      </c>
+      <c r="L15" s="29">
+        <v>9.5347988399753305</v>
+      </c>
+      <c r="M15" s="31">
+        <v>2.77666325483631E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B16" s="27">
         <v>12</v>
       </c>
-      <c r="C13" s="30">
-        <v>61432468</v>
-      </c>
-      <c r="D13" s="30">
-        <v>5119372</v>
-      </c>
-      <c r="E13" s="30">
-        <v>5326382</v>
-      </c>
-      <c r="F13" s="30">
-        <v>6114386</v>
-      </c>
-      <c r="G13" s="33">
-        <v>0.111</v>
-      </c>
-      <c r="H13" s="36">
-        <v>17686000000</v>
-      </c>
-      <c r="I13" s="36">
-        <v>-152000000</v>
-      </c>
-      <c r="J13" s="33">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="K13" s="31">
-        <v>3455</v>
-      </c>
-      <c r="L13" s="31">
-        <v>-415</v>
-      </c>
-      <c r="M13" s="33">
-        <v>-0.107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="C16" s="28">
+        <v>55780221</v>
+      </c>
+      <c r="D16" s="28">
+        <v>4648351.75</v>
+      </c>
+      <c r="E16" s="28">
+        <v>4661632</v>
+      </c>
+      <c r="F16" s="28">
+        <v>528594</v>
+      </c>
+      <c r="G16" s="31">
+        <v>9.56703048762708E-3</v>
+      </c>
+      <c r="H16" s="34">
+        <v>15962000000</v>
+      </c>
+      <c r="I16" s="34">
+        <v>2200000000</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0.15986048539456399</v>
+      </c>
+      <c r="K16" s="29">
+        <v>3433.9053622609299</v>
+      </c>
+      <c r="L16" s="29">
+        <v>444.96170635737099</v>
+      </c>
+      <c r="M16" s="31">
+        <v>0.148869218554358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B17" s="27">
         <v>12</v>
       </c>
-      <c r="C14" s="30">
-        <v>55318082</v>
-      </c>
-      <c r="D14" s="30">
-        <v>4609840</v>
-      </c>
-      <c r="E14" s="30">
-        <v>4574913</v>
-      </c>
-      <c r="F14" s="30">
-        <v>-896739</v>
-      </c>
-      <c r="G14" s="33">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="H14" s="36">
-        <v>17838000000</v>
-      </c>
-      <c r="I14" s="36">
-        <v>1708000000</v>
-      </c>
-      <c r="J14" s="33">
-        <v>0.106</v>
-      </c>
-      <c r="K14" s="31">
-        <v>3870</v>
-      </c>
-      <c r="L14" s="31">
-        <v>426</v>
-      </c>
-      <c r="M14" s="33">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="C17" s="28">
+        <v>55251627</v>
+      </c>
+      <c r="D17" s="28">
+        <v>4604302.25</v>
+      </c>
+      <c r="E17" s="28">
+        <v>4590438</v>
+      </c>
+      <c r="F17" s="28">
+        <v>-1279223</v>
+      </c>
+      <c r="G17" s="31">
+        <v>-2.2628759341138501E-2</v>
+      </c>
+      <c r="H17" s="34">
+        <v>13762000000</v>
+      </c>
+      <c r="I17" s="34">
+        <v>1296000000</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0.103962778758222</v>
+      </c>
+      <c r="K17" s="29">
+        <v>2988.9436559035598</v>
+      </c>
+      <c r="L17" s="29">
+        <v>342.742510865057</v>
+      </c>
+      <c r="M17" s="31">
+        <v>0.12952247092315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B18" s="27">
         <v>12</v>
       </c>
-      <c r="C15" s="30">
-        <v>56214821</v>
-      </c>
-      <c r="D15" s="30">
-        <v>4684568</v>
-      </c>
-      <c r="E15" s="30">
-        <v>4675634</v>
-      </c>
-      <c r="F15" s="30">
-        <v>432775</v>
-      </c>
-      <c r="G15" s="33">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H15" s="36">
-        <v>16130000000</v>
-      </c>
-      <c r="I15" s="36">
-        <v>168000000</v>
-      </c>
-      <c r="J15" s="33">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K15" s="31">
-        <v>3443</v>
-      </c>
-      <c r="L15" s="31">
-        <v>9</v>
-      </c>
-      <c r="M15" s="33">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="C18" s="28">
+        <v>56530850</v>
+      </c>
+      <c r="D18" s="28">
+        <v>4710904.1666666605</v>
+      </c>
+      <c r="E18" s="28">
+        <v>4795408</v>
+      </c>
+      <c r="F18" s="28">
+        <v>4876815</v>
+      </c>
+      <c r="G18" s="31">
+        <v>9.4413050209920593E-2</v>
+      </c>
+      <c r="H18" s="34">
+        <v>12466000000</v>
+      </c>
+      <c r="I18" s="34">
+        <v>-201000000</v>
+      </c>
+      <c r="J18" s="31">
+        <v>-1.5868003473592799E-2</v>
+      </c>
+      <c r="K18" s="29">
+        <v>2646.2011450384998</v>
+      </c>
+      <c r="L18" s="29">
+        <v>-296.531208784385</v>
+      </c>
+      <c r="M18" s="31">
+        <v>-0.10076730505211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B19" s="27">
         <v>12</v>
       </c>
-      <c r="C16" s="30">
-        <v>55782046</v>
-      </c>
-      <c r="D16" s="30">
-        <v>4648504</v>
-      </c>
-      <c r="E16" s="30">
-        <v>4661817</v>
-      </c>
-      <c r="F16" s="30">
-        <v>529664</v>
-      </c>
-      <c r="G16" s="33">
-        <v>0.01</v>
-      </c>
-      <c r="H16" s="36">
-        <v>15962000000</v>
-      </c>
-      <c r="I16" s="36">
-        <v>2200000000</v>
-      </c>
-      <c r="J16" s="33">
-        <v>0.16</v>
-      </c>
-      <c r="K16" s="31">
-        <v>3434</v>
-      </c>
-      <c r="L16" s="31">
-        <v>445</v>
-      </c>
-      <c r="M16" s="33">
-        <v>0.14899999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="C19" s="28">
+        <v>51654035</v>
+      </c>
+      <c r="D19" s="28">
+        <v>4304502.9166666605</v>
+      </c>
+      <c r="E19" s="28">
+        <v>4495497</v>
+      </c>
+      <c r="F19" s="28">
+        <v>8567063</v>
+      </c>
+      <c r="G19" s="31">
+        <v>0.198831865000863</v>
+      </c>
+      <c r="H19" s="34">
+        <v>12667000000</v>
+      </c>
+      <c r="I19" s="34">
+        <v>1450000000</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0.12926807524293399</v>
+      </c>
+      <c r="K19" s="29">
+        <v>2942.7323538228902</v>
+      </c>
+      <c r="L19" s="29">
+        <v>-181.27459658429899</v>
+      </c>
+      <c r="M19" s="31">
+        <v>-5.80263102681867E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B20" s="27">
         <v>12</v>
       </c>
-      <c r="C17" s="30">
-        <v>55252382</v>
-      </c>
-      <c r="D17" s="30">
-        <v>4604365</v>
-      </c>
-      <c r="E17" s="30">
-        <v>4590502</v>
-      </c>
-      <c r="F17" s="30">
-        <v>-1278863</v>
-      </c>
-      <c r="G17" s="33">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="H17" s="36">
-        <v>13762000000</v>
-      </c>
-      <c r="I17" s="36">
-        <v>1296000000</v>
-      </c>
-      <c r="J17" s="33">
-        <v>0.104</v>
-      </c>
-      <c r="K17" s="31">
-        <v>2989</v>
-      </c>
-      <c r="L17" s="31">
-        <v>343</v>
-      </c>
-      <c r="M17" s="33">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="C20" s="28">
+        <v>43086972</v>
+      </c>
+      <c r="D20" s="28">
+        <v>3590581</v>
+      </c>
+      <c r="E20" s="28">
+        <v>3585440</v>
+      </c>
+      <c r="F20" s="28">
+        <v>3267448</v>
+      </c>
+      <c r="G20" s="31">
+        <v>8.2056430408359401E-2</v>
+      </c>
+      <c r="H20" s="34">
+        <v>11217000000</v>
+      </c>
+      <c r="I20" s="34">
+        <v>1420000000</v>
+      </c>
+      <c r="J20" s="31">
+        <v>0.14494232928447401</v>
+      </c>
+      <c r="K20" s="29">
+        <v>3124.0069504071898</v>
+      </c>
+      <c r="L20" s="29">
+        <v>171.58592196897899</v>
+      </c>
+      <c r="M20" s="31">
+        <v>5.8117023390714E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B21" s="27">
         <v>12</v>
       </c>
-      <c r="C18" s="30">
-        <v>56531245</v>
-      </c>
-      <c r="D18" s="30">
-        <v>4710937</v>
-      </c>
-      <c r="E18" s="30">
-        <v>4795444</v>
-      </c>
-      <c r="F18" s="30">
-        <v>4877033</v>
-      </c>
-      <c r="G18" s="33">
-        <v>9.4E-2</v>
-      </c>
-      <c r="H18" s="36">
-        <v>12466000000</v>
-      </c>
-      <c r="I18" s="36">
-        <v>-201000000</v>
-      </c>
-      <c r="J18" s="33">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="K18" s="31">
-        <v>2646</v>
-      </c>
-      <c r="L18" s="31">
-        <v>-297</v>
-      </c>
-      <c r="M18" s="33">
-        <v>-0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="C21" s="28">
+        <v>39819524</v>
+      </c>
+      <c r="D21" s="28">
+        <v>3318293.66666666</v>
+      </c>
+      <c r="E21" s="28">
+        <v>3400031</v>
+      </c>
+      <c r="F21" s="28">
+        <v>3635613</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0.10047595463077499</v>
+      </c>
+      <c r="H21" s="34">
+        <v>9797000000</v>
+      </c>
+      <c r="I21" s="34">
+        <v>5745531000</v>
+      </c>
+      <c r="J21" s="31">
+        <v>1.41813524921454</v>
+      </c>
+      <c r="K21" s="29">
+        <v>2952.4210284382102</v>
+      </c>
+      <c r="L21" s="29">
+        <v>1608.79545960459</v>
+      </c>
+      <c r="M21" s="31">
+        <v>1.19735400763559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B22" s="27">
         <v>12</v>
       </c>
-      <c r="C19" s="30">
-        <v>51654212</v>
-      </c>
-      <c r="D19" s="30">
-        <v>4304518</v>
-      </c>
-      <c r="E19" s="30">
-        <v>4495511</v>
-      </c>
-      <c r="F19" s="30">
-        <v>8567280</v>
-      </c>
-      <c r="G19" s="33">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="H19" s="36">
-        <v>12667000000</v>
-      </c>
-      <c r="I19" s="36">
-        <v>1450000000</v>
-      </c>
-      <c r="J19" s="33">
-        <v>0.129</v>
-      </c>
-      <c r="K19" s="31">
-        <v>2943</v>
-      </c>
-      <c r="L19" s="31">
-        <v>-181</v>
-      </c>
-      <c r="M19" s="33">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="29">
-        <v>12</v>
-      </c>
-      <c r="C20" s="30">
-        <v>43086932</v>
-      </c>
-      <c r="D20" s="30">
-        <v>3590578</v>
-      </c>
-      <c r="E20" s="30">
-        <v>3585436</v>
-      </c>
-      <c r="F20" s="30">
-        <v>3267480</v>
-      </c>
-      <c r="G20" s="33">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="H20" s="36">
-        <v>11217000000</v>
-      </c>
-      <c r="I20" s="36">
-        <v>1420000000</v>
-      </c>
-      <c r="J20" s="33">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="K20" s="31">
-        <v>3124</v>
-      </c>
-      <c r="L20" s="31">
-        <v>172</v>
-      </c>
-      <c r="M20" s="33">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="29">
-        <v>12</v>
-      </c>
-      <c r="C21" s="30">
-        <v>39819452</v>
-      </c>
-      <c r="D21" s="30">
-        <v>3318288</v>
-      </c>
-      <c r="E21" s="30">
-        <v>3400026</v>
-      </c>
-      <c r="F21" s="30">
-        <v>3635580</v>
-      </c>
-      <c r="G21" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="H21" s="36">
-        <v>9797000000</v>
-      </c>
-      <c r="I21" s="36">
-        <v>5745531000</v>
-      </c>
-      <c r="J21" s="33">
-        <v>1.4179999999999999</v>
-      </c>
-      <c r="K21" s="31">
-        <v>2952</v>
-      </c>
-      <c r="L21" s="31">
-        <v>1609</v>
-      </c>
-      <c r="M21" s="33">
-        <v>1.1970000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="29">
-        <v>12</v>
-      </c>
-      <c r="C22" s="30">
-        <v>36183872</v>
-      </c>
-      <c r="D22" s="30">
-        <v>3015323</v>
-      </c>
-      <c r="E22" s="30">
-        <v>3045533</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="36">
+      <c r="C22" s="28">
+        <v>36183911</v>
+      </c>
+      <c r="D22" s="28">
+        <v>3015325.91666666</v>
+      </c>
+      <c r="E22" s="28">
+        <v>3045538</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="34">
         <v>4051469000</v>
       </c>
-      <c r="I22" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="31">
-        <v>1344</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22" s="34" t="s">
-        <v>75</v>
+      <c r="I22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="29">
+        <v>1343.62556883361</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>58</v>
+      <c r="A24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>76</v>
+        <v>49</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>_xlfn.CONCAT("(2) Full-year Enrollment 2025 Estimate Represents YTD annualized. Months in YTD = ",B9,".")</f>
-        <v>(2) Full-year Enrollment 2025 Estimate Represents YTD annualized. Months in YTD = 3.</v>
+        <v>(2) Full-year Enrollment 2025 Estimate Represents YTD annualized. Months in YTD = 5.</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>_xlfn.CONCAT("(3) FY25 full-year spending estimate is based an assumption of per capita spending growth = ",ROUND(G29*100,2),"%")</f>
-        <v>(3) FY25 full-year spending estimate is based an assumption of per capita spending growth = 2.4%</v>
-      </c>
-      <c r="G27" s="17">
-        <v>4.36E-2</v>
+        <v>(3) FY25 full-year spending estimate is based an assumption of per capita spending growth = 2.43%</v>
+      </c>
+      <c r="G27" s="15">
+        <v>4.3299999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="G29" s="17">
-        <v>2.4E-2</v>
+      <c r="G29" s="15">
+        <v>2.4299999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>59</v>
+      <c r="A31" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4636,7 +4684,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4657,266 +4705,266 @@
   <sheetData>
     <row r="1" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="16:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="63"/>
+    </row>
+    <row r="3" spans="16:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="66"/>
+    </row>
+    <row r="4" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19"/>
+    </row>
+    <row r="5" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
+    </row>
+    <row r="6" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="21">
+        <f>AVERAGE(projection_data!E14)</f>
+        <v>-2.05795268805995E-2</v>
+      </c>
+      <c r="R6" s="21"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="21">
+        <f>AVERAGE(projection_data!E12:E14)</f>
+        <v>4.0678779005145237E-2</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62"/>
-    </row>
-    <row r="3" spans="16:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="P3" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="65"/>
-    </row>
-    <row r="4" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P4" s="19"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21"/>
-    </row>
-    <row r="5" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P5" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="59"/>
-    </row>
-    <row r="6" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P6" s="10" t="s">
+      <c r="Q8" s="21">
+        <f>AVERAGE(projection_data!E10:E14)</f>
+        <v>4.3289868187764854E-2</v>
+      </c>
+      <c r="R8" s="21"/>
+      <c r="S8" s="19"/>
+    </row>
+    <row r="9" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="60"/>
+    </row>
+    <row r="11" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="22">
+        <f>AVERAGE(projection_data!G14)</f>
+        <v>6.4989380928225995E-2</v>
+      </c>
+      <c r="R11" s="22"/>
+      <c r="S11" s="19"/>
+    </row>
+    <row r="12" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="22">
+        <f>AVERAGE(projection_data!G12:G14)</f>
+        <v>3.4971496385243502E-2</v>
+      </c>
+      <c r="R12" s="22"/>
+      <c r="S12" s="19"/>
+    </row>
+    <row r="13" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="22">
+        <f>AVERAGE(projection_data!G10:G14)</f>
+        <v>2.43361514631543E-2</v>
+      </c>
+      <c r="R13" s="22"/>
+      <c r="S13" s="19"/>
+    </row>
+    <row r="14" spans="16:19" x14ac:dyDescent="0.2">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="19"/>
+    </row>
+    <row r="15" spans="16:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="57"/>
+    </row>
+    <row r="16" spans="16:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="23">
-        <f>AVERAGE(projection_data!L14)</f>
-        <v>-1.9709381278028491E-2</v>
-      </c>
-      <c r="R6" s="23"/>
-      <c r="S6" s="21"/>
-    </row>
-    <row r="7" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="23">
-        <f>AVERAGE(projection_data!L12:L14)</f>
-        <v>4.108274460357126E-2</v>
-      </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="21"/>
-    </row>
-    <row r="8" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="23">
-        <f>AVERAGE(projection_data!L10:L14)</f>
-        <v>4.3565533535098629E-2</v>
-      </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="21"/>
-    </row>
-    <row r="9" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="21"/>
-    </row>
-    <row r="10" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P10" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="59"/>
-    </row>
-    <row r="11" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="24">
-        <f>AVERAGE(projection_data!O14)</f>
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="R11" s="24"/>
-      <c r="S11" s="21"/>
-    </row>
-    <row r="12" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="24">
-        <f>AVERAGE(projection_data!O12:O14)</f>
-        <v>3.4333333333333334E-2</v>
-      </c>
-      <c r="R12" s="24"/>
-      <c r="S12" s="21"/>
-    </row>
-    <row r="13" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="24">
-        <f>AVERAGE(projection_data!O10:O14)</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="R13" s="24"/>
-      <c r="S13" s="21"/>
-    </row>
-    <row r="14" spans="16:19" x14ac:dyDescent="0.2">
-      <c r="P14" s="19"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21"/>
-    </row>
-    <row r="15" spans="16:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P15" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="56"/>
-    </row>
-    <row r="16" spans="16:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="P16" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="19"/>
     </row>
     <row r="17" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P17" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="53"/>
+      <c r="P17" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="54"/>
     </row>
     <row r="18" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="53"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="54"/>
     </row>
     <row r="19" spans="16:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P19" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="R19" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" s="9"/>
+      <c r="P19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="S19" s="8"/>
     </row>
     <row r="20" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P20" s="18">
-        <v>4.36E-2</v>
-      </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="66">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S20" s="9"/>
+      <c r="P20" s="16">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="44">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="S20" s="8"/>
     </row>
     <row r="21" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P21" s="8"/>
-      <c r="S21" s="9"/>
+      <c r="P21" s="7"/>
+      <c r="S21" s="8"/>
     </row>
     <row r="22" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P22" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="S22" s="9"/>
+      <c r="P22" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="S22" s="8"/>
     </row>
     <row r="23" spans="16:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q23" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" s="40" t="s">
-        <v>6</v>
+      <c r="P23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P24" s="11" t="str" cm="1">
+      <c r="P24" s="10" t="str" cm="1">
         <f t="array" ref="P24:P28">projection_data!B15:B19</f>
         <v>FY25</v>
       </c>
-      <c r="Q24" s="12" cm="1">
-        <f t="array" ref="Q24:Q28">projection_data!K15:K19</f>
-        <v>6009446.4116000002</v>
-      </c>
-      <c r="R24" s="43" cm="1">
-        <f t="array" ref="R24:R28">projection_data!M15:M19</f>
-        <v>3914.752</v>
-      </c>
-      <c r="S24" s="41" cm="1">
-        <f t="array" ref="S24:S28">projection_data!H15:H19</f>
-        <v>23525492358.703922</v>
+      <c r="Q24" s="11" cm="1">
+        <f t="array" ref="Q24:Q28">projection_data!D15:D19</f>
+        <v>5999144.4493083265</v>
+      </c>
+      <c r="R24" s="41" cm="1">
+        <f t="array" ref="R24:R28">projection_data!F15:F19</f>
+        <v>3921.2659167062016</v>
+      </c>
+      <c r="S24" s="39" cm="1">
+        <f t="array" ref="S24:S28">projection_data!C15:C19</f>
+        <v>23524240658.469936</v>
       </c>
     </row>
     <row r="25" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P25" s="11" t="str">
+      <c r="P25" s="10" t="str">
         <v>FY26</v>
       </c>
-      <c r="Q25" s="12">
-        <v>6271458.2751457607</v>
-      </c>
-      <c r="R25" s="43">
-        <v>4008.706048</v>
-      </c>
-      <c r="S25" s="41">
-        <v>25140432717.356461</v>
+      <c r="Q25" s="11">
+        <v>6258907.4039633768</v>
+      </c>
+      <c r="R25" s="41">
+        <v>4016.5526784821623</v>
+      </c>
+      <c r="S25" s="39">
+        <v>25139231297.760937</v>
       </c>
     </row>
     <row r="26" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P26" s="11" t="str">
+      <c r="P26" s="10" t="str">
         <v>FY27</v>
       </c>
-      <c r="Q26" s="12">
-        <v>6544893.8559421161</v>
-      </c>
-      <c r="R26" s="43">
-        <v>4104.9149931520005</v>
-      </c>
-      <c r="S26" s="41">
-        <v>26866232917.845203</v>
+      <c r="Q26" s="11">
+        <v>6529918.0945549905</v>
+      </c>
+      <c r="R26" s="41">
+        <v>4114.1549085692786</v>
+      </c>
+      <c r="S26" s="39">
+        <v>26865094581.268764</v>
       </c>
     </row>
     <row r="27" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P27" s="11" t="str">
+      <c r="P27" s="10" t="str">
         <v>FY28</v>
       </c>
-      <c r="Q27" s="12">
-        <v>6830251.2280611927</v>
-      </c>
-      <c r="R27" s="43">
-        <v>4203.4329529876486</v>
-      </c>
-      <c r="S27" s="41">
-        <v>28710503089.216774</v>
+      <c r="Q27" s="11">
+        <v>6812663.5480492208</v>
+      </c>
+      <c r="R27" s="41">
+        <v>4214.128872847512</v>
+      </c>
+      <c r="S27" s="39">
+        <v>28709442158.829994</v>
       </c>
     </row>
     <row r="28" spans="16:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P28" s="13" t="str">
+      <c r="P28" s="12" t="str">
         <v>FY29</v>
       </c>
-      <c r="Q28" s="14">
-        <v>7128050.181604661</v>
-      </c>
-      <c r="R28" s="44">
-        <v>4304.3153438593527</v>
-      </c>
-      <c r="S28" s="42">
-        <v>30681375768.480389</v>
+      <c r="Q28" s="13">
+        <v>7107651.8796797516</v>
+      </c>
+      <c r="R28" s="42">
+        <v>4316.532204457706</v>
+      </c>
+      <c r="S28" s="40">
+        <v>30680408236.711994</v>
       </c>
     </row>
     <row r="29" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4957,831 +5005,464 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>36183872</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="H2" s="4">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3">
         <v>4051469000</v>
       </c>
-      <c r="K2" s="2">
-        <v>3015323</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="4">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>3015325.91666666</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1343.62556883361</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>39819452</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3635580</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="4">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3">
         <v>9797000000</v>
       </c>
-      <c r="I3" s="4">
-        <v>5745531000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1.4179999999999999</v>
-      </c>
-      <c r="K3" s="2">
-        <v>3318288</v>
-      </c>
-      <c r="L3" s="25">
-        <f>(K3-K2)/K2</f>
-        <v>0.10047513981089257</v>
-      </c>
-      <c r="M3" s="4">
-        <v>2952</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1609</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1.1970000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>3318293.66666666</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0.10047595463077499</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2952.4210284382102</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.19735400763559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43086932</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3267480</v>
-      </c>
-      <c r="G4" s="3">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="H4" s="4">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3">
         <v>11217000000</v>
       </c>
-      <c r="I4" s="4">
-        <v>1420000000</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3590578</v>
-      </c>
-      <c r="L4" s="25">
-        <f t="shared" ref="L4:L14" si="0">(K4-K3)/K3</f>
-        <v>8.2057374164026753E-2</v>
-      </c>
-      <c r="M4" s="4">
-        <v>3124</v>
-      </c>
-      <c r="N4" s="4">
-        <v>172</v>
-      </c>
-      <c r="O4" s="3">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>3590581</v>
+      </c>
+      <c r="E4" s="23">
+        <v>8.2056430408359499E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3124.0069504071898</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.8117023390714E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>51654212</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8567280</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="H5" s="4">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3">
         <v>12667000000</v>
       </c>
-      <c r="I5" s="4">
-        <v>1450000000</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.129</v>
-      </c>
-      <c r="K5" s="2">
-        <v>4304518</v>
-      </c>
-      <c r="L5" s="25">
+      <c r="D5" s="1">
+        <v>4304502.9166666605</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.198831865000863</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2942.7323538228902</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-5.80263102681867E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12466000000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4710904.1666666605</v>
+      </c>
+      <c r="E6" s="23">
+        <v>9.4413050209920593E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2646.2011450384998</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-0.10076730505211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13762000000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4604302.25</v>
+      </c>
+      <c r="E7" s="23">
+        <v>-2.2628759341138501E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2988.9436559035598</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.12952247092315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15962000000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4648351.75</v>
+      </c>
+      <c r="E8" s="23">
+        <v>9.56703048762708E-3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3433.9053622609299</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.148869218554358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3">
+        <v>16130000000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4684269</v>
+      </c>
+      <c r="E9" s="23">
+        <v>7.7268786726391696E-3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3443.4401611009098</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.77666325483631E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>17838000000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4609283.3333333302</v>
+      </c>
+      <c r="E10" s="23">
+        <v>-1.6007976200057401E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3870.01594607983</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.12388070215297101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <v>17686000000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5118244.9166666605</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.11042098012344601</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3455.4813784718699</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-0.10711443399293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3">
+        <v>19634000000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5611767</v>
+      </c>
+      <c r="E12" s="23">
+        <v>9.6424085085546493E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3498.7197437099499</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.25129788015829E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
+        <v>21104000000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5870984.5</v>
+      </c>
+      <c r="E13" s="23">
+        <v>4.61917788104887E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3594.62710214956</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.74121294259216E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3">
+        <v>22013000000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5750162.4166666605</v>
+      </c>
+      <c r="E14" s="23">
+        <v>-2.05795268805995E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3828.23969218608</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6.4989380928225995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="str" cm="1">
+        <f t="array" ref="B15">CONCATENATE("FY",RIGHT(INDEX(Table1[],ROWS(Table1[]),2),2)+1)</f>
+        <v>FY25</v>
+      </c>
+      <c r="C15" s="5">
+        <f>D15*F15</f>
+        <v>23524240658.469936</v>
+      </c>
+      <c r="D15" s="4" cm="1">
+        <f t="array" ref="D15">(1+Graph!$P$20)*INDEX(Table1[],ROWS(Table1[]),4)</f>
+        <v>5999144.4493083265</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="5" cm="1">
+        <f t="array" ref="F15">(1+Graph!$R$20)*INDEX(Table1[],ROWS(Table1[]),6)</f>
+        <v>3921.2659167062016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>CONCATENATE("FY",RIGHT(B15,2)+1)</f>
+        <v>FY26</v>
+      </c>
+      <c r="C16" s="5">
+        <f>D16*F16</f>
+        <v>25139231297.760937</v>
+      </c>
+      <c r="D16" s="4">
+        <f>(1+Graph!$P$20)*D15</f>
+        <v>6258907.4039633768</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="5">
+        <f>(1+Graph!$R$20)*F15</f>
+        <v>4016.5526784821623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>CONCATENATE("FY",RIGHT(B16,2)+1)</f>
+        <v>FY27</v>
+      </c>
+      <c r="C17" s="5">
+        <f>D17*F17</f>
+        <v>26865094581.268764</v>
+      </c>
+      <c r="D17" s="4">
+        <f>(1+Graph!$P$20)*D16</f>
+        <v>6529918.0945549905</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="5">
+        <f>(1+Graph!$R$20)*F16</f>
+        <v>4114.1549085692786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f t="shared" ref="B17:B19" si="0">CONCATENATE("FY",RIGHT(B17,2)+1)</f>
+        <v>FY28</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ref="C16:C19" si="1">D18*F18</f>
+        <v>28709442158.829994</v>
+      </c>
+      <c r="D18" s="4">
+        <f>(1+Graph!$P$20)*D17</f>
+        <v>6812663.5480492208</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="5">
+        <f>(1+Graph!$R$20)*F17</f>
+        <v>4214.128872847512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0.19883706745821983</v>
-      </c>
-      <c r="M5" s="4">
-        <v>2943</v>
-      </c>
-      <c r="N5" s="4">
-        <v>-181</v>
-      </c>
-      <c r="O5" s="3">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>56531245</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4877033</v>
-      </c>
-      <c r="G6" s="3">
-        <v>9.4E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>12466000000</v>
-      </c>
-      <c r="I6" s="4">
-        <v>-201000000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>4710937</v>
-      </c>
-      <c r="L6" s="25">
-        <f t="shared" si="0"/>
-        <v>9.4416842954309868E-2</v>
-      </c>
-      <c r="M6" s="4">
-        <v>2646</v>
-      </c>
-      <c r="N6" s="4">
-        <v>-297</v>
-      </c>
-      <c r="O6" s="3">
-        <v>-0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>55252382</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-1278863</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>13762000000</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1296000000</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.104</v>
-      </c>
-      <c r="K7" s="2">
-        <v>4604365</v>
-      </c>
-      <c r="L7" s="25">
-        <f t="shared" si="0"/>
-        <v>-2.2622251157253855E-2</v>
-      </c>
-      <c r="M7" s="4">
-        <v>2989</v>
-      </c>
-      <c r="N7" s="4">
-        <v>343</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>55782046</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>529664</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="4">
-        <v>15962000000</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2200000000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="K8" s="2">
-        <v>4648504</v>
-      </c>
-      <c r="L8" s="25">
-        <f t="shared" si="0"/>
-        <v>9.5863381812692963E-3</v>
-      </c>
-      <c r="M8" s="4">
-        <v>3434</v>
-      </c>
-      <c r="N8" s="4">
-        <v>445</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.14899999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2">
-        <v>56214821</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>432775</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H9" s="4">
-        <v>16130000000</v>
-      </c>
-      <c r="I9" s="4">
-        <v>168000000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>4684568</v>
-      </c>
-      <c r="L9" s="25">
-        <f t="shared" si="0"/>
-        <v>7.758194894529509E-3</v>
-      </c>
-      <c r="M9" s="4">
-        <v>3443</v>
-      </c>
-      <c r="N9" s="4">
-        <v>9</v>
-      </c>
-      <c r="O9" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>55318082</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-2E-3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-896739</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>17838000000</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1708000000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.106</v>
-      </c>
-      <c r="K10" s="2">
-        <v>4609840</v>
-      </c>
-      <c r="L10" s="25">
-        <f t="shared" si="0"/>
-        <v>-1.5951951172445356E-2</v>
-      </c>
-      <c r="M10" s="4">
-        <v>3870</v>
-      </c>
-      <c r="N10" s="4">
-        <v>426</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <v>61432468</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6114386</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.111</v>
-      </c>
-      <c r="H11" s="4">
-        <v>17686000000</v>
-      </c>
-      <c r="I11" s="4">
-        <v>-152000000</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="K11" s="2">
-        <v>5119372</v>
-      </c>
-      <c r="L11" s="25">
-        <f t="shared" si="0"/>
-        <v>0.11053138503722472</v>
-      </c>
-      <c r="M11" s="4">
-        <v>3455</v>
-      </c>
-      <c r="N11" s="4">
-        <v>-415</v>
-      </c>
-      <c r="O11" s="3">
-        <v>-0.107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <v>67365292</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>5932824</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>19634000000</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1948000000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="K12" s="2">
-        <v>5613774</v>
-      </c>
-      <c r="L12" s="25">
-        <f t="shared" si="0"/>
-        <v>9.6574736119977217E-2</v>
-      </c>
-      <c r="M12" s="4">
-        <v>3497</v>
-      </c>
-      <c r="N12" s="4">
-        <v>43</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2">
-        <v>70489889</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3124597</v>
-      </c>
-      <c r="G13" s="3">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>21104000000</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1470000000</v>
-      </c>
-      <c r="J13" s="3">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5874157</v>
-      </c>
-      <c r="L13" s="25">
-        <f t="shared" si="0"/>
-        <v>4.6382878968765043E-2</v>
-      </c>
-      <c r="M13" s="4">
-        <v>3593</v>
-      </c>
-      <c r="N13" s="4">
-        <v>95</v>
-      </c>
-      <c r="O13" s="3">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2">
-        <v>69100570</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-1389319</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-0.02</v>
-      </c>
-      <c r="H14" s="4">
-        <v>22013000000</v>
-      </c>
-      <c r="I14" s="4">
-        <v>909000000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="K14" s="2">
-        <v>5758381</v>
-      </c>
-      <c r="L14" s="25">
-        <f t="shared" si="0"/>
-        <v>-1.9709381278028491E-2</v>
-      </c>
-      <c r="M14" s="4">
-        <v>3823</v>
-      </c>
-      <c r="N14" s="4">
-        <v>230</v>
-      </c>
-      <c r="O14" s="3">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
-        <f>(1+Graph!$P$20)*projection_data!D14</f>
-        <v>72113354.852000013</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6">
-        <f>K15*M15</f>
-        <v>23525492358.703922</v>
-      </c>
-      <c r="K15" s="5">
-        <f>(1+Graph!$P$20)*projection_data!K14</f>
-        <v>6009446.4116000002</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="6">
-        <f>(1+Graph!$R$20)*M14</f>
-        <v>3914.752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
-        <f>(1+Graph!$P$20)*D15</f>
-        <v>75257497.123547226</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6">
-        <f t="shared" ref="H16:H19" si="1">K16*M16</f>
-        <v>25140432717.356461</v>
-      </c>
-      <c r="K16" s="5">
-        <f>(1+Graph!$P$20)*K15</f>
-        <v>6271458.2751457607</v>
-      </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="6">
-        <f>(1+Graph!$R$20)*M15</f>
-        <v>4008.706048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
-        <f>(1+Graph!$P$20)*D16</f>
-        <v>78538723.998133898</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6">
-        <f>K17*M17</f>
-        <v>26866232917.845203</v>
-      </c>
-      <c r="K17" s="5">
-        <f>(1+Graph!$P$20)*K16</f>
-        <v>6544893.8559421161</v>
-      </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="6">
-        <f>(1+Graph!$R$20)*M16</f>
-        <v>4104.9149931520005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
-        <f>(1+Graph!$P$20)*D17</f>
-        <v>81963012.364452541</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6">
+        <v>FY29</v>
+      </c>
+      <c r="C19" s="5">
         <f t="shared" si="1"/>
-        <v>28710503089.216774</v>
-      </c>
-      <c r="K18" s="5">
-        <f>(1+Graph!$P$20)*K17</f>
-        <v>6830251.2280611927</v>
-      </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="6">
-        <f>(1+Graph!$R$20)*M17</f>
-        <v>4203.4329529876486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5">
+        <v>30680408236.711994</v>
+      </c>
+      <c r="D19" s="4">
         <f>(1+Graph!$P$20)*D18</f>
-        <v>85536599.70354268</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6">
-        <f t="shared" si="1"/>
-        <v>30681375768.480389</v>
-      </c>
-      <c r="K19" s="5">
-        <f>(1+Graph!$P$20)*K18</f>
-        <v>7128050.181604661</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="6">
-        <f>(1+Graph!$R$20)*M18</f>
-        <v>4304.3153438593527</v>
+        <v>7107651.8796797516</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="5">
+        <f>(1+Graph!$R$20)*F18</f>
+        <v>4316.532204457706</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:O14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G14">
     <sortCondition ref="B2:B14"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/mmc_enrollment_vs_spending.xlsx
+++ b/mmc_enrollment_vs_spending.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaac/Documents/RProjects/s2p_data_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6B98AF-5AB8-6C45-A337-B996CF3F0DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3DD4C2-5A42-C342-9113-946D30B5C991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -131,15 +131,6 @@
     <t>Average Annual Per Capita Spending % Growth</t>
   </si>
   <si>
-    <t>FY26 (Forecast)</t>
-  </si>
-  <si>
-    <t>FY25 (Estimate)(1)(2)</t>
-  </si>
-  <si>
-    <t>FY25 (YTD)</t>
-  </si>
-  <si>
     <t>FY24</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
   </si>
   <si>
     <t>(1) Data sources: Full-year Enrollment 2025 Estimate Represents YTD annualized</t>
-  </si>
-  <si>
-    <t>FY26 Growth Assumptions</t>
   </si>
   <si>
     <t>Definitions</t>
@@ -516,6 +504,21 @@
   </si>
   <si>
     <t>Per Capita State Spending</t>
+  </si>
+  <si>
+    <t>FY26 (YTD)</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26 (Estimate)(1)(2)</t>
+  </si>
+  <si>
+    <t>FY30 (Forecast)</t>
+  </si>
+  <si>
+    <t>FY27 Growth Assumptions</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1004,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1113,6 +1116,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent4" xfId="11" builtinId="42"/>
@@ -1129,6 +1143,31 @@
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -1159,36 +1198,14 @@
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF7F7F7F"/>
       <color rgb="FFB9CDE5"/>
+      <color rgb="FFC7D8EA"/>
+      <color rgb="FF999999"/>
       <color rgb="FFE4DFEC"/>
       <color rgb="FFF2DCDB"/>
       <color rgb="FFEBF1DE"/>
@@ -1327,10 +1344,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
+                <a:srgbClr val="B9CDE5">
                   <a:alpha val="80000"/>
-                </a:schemeClr>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1437,7 +1453,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="B9CDE5">
+                <a:srgbClr val="7F7F7F">
                   <a:alpha val="80000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -1454,9 +1470,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>projection_data!$B$2:$B$19</c:f>
+              <c:f>projection_data!$B$2:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>FY12</c:v>
                 </c:pt>
@@ -1510,69 +1526,75 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>FY29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>FY30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>projection_data!$D$2:$D$19</c:f>
+              <c:f>projection_data!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>3015325.91666666</c:v>
+                <c:ptCount val="19"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3479642.41666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3318293.66666666</c:v>
+                  <c:v>3496476.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3590581</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4304502.9166666605</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4710904.1666666605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4604302.25</c:v>
+                  <c:v>3491534.75</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3978222.16666666</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>4590300.6666666605</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>4402274.3333333302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4648351.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4684269</c:v>
+                  <c:v>4389702.25</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4374554.5833333302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4609283.3333333302</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5118244.9166666605</c:v>
+                  <c:v>4254833</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>4742618.0833333302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5611767</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5870984.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5750162.4166666605</c:v>
+                  <c:v>5204912</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>5437762.5833333302</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>5292583.4166666605</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>5999144.4493083265</c:v>
+                  <c:v>4554646.5833333302</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>6258907.4039633768</c:v>
+                  <c:v>4637085.6864916636</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>6529918.0945549905</c:v>
+                  <c:v>4721016.9374171626</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>6812663.5480492208</c:v>
+                  <c:v>4806467.343984413</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>7107651.8796797516</c:v>
+                  <c:v>4893464.4029105306</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>4982036.1086032111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1842,9 +1864,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>projection_data!$B$2:$B$19</c:f>
+              <c:f>projection_data!$B$2:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>FY12</c:v>
                 </c:pt>
@@ -1898,16 +1920,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>FY29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>FY30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>projection_data!$C$2:$C$19</c:f>
+              <c:f>projection_data!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>4051469000</c:v>
                 </c:pt>
@@ -1947,20 +1972,23 @@
                 <c:pt idx="12">
                   <c:v>22013000000</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
-                  <c:v>23524240658.469936</c:v>
+                <c:pt idx="13">
+                  <c:v>20264000000</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
-                  <c:v>25139231297.760937</c:v>
+                  <c:v>20925798531.119946</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
-                  <c:v>26865094581.268764</c:v>
+                  <c:v>21609210627.962036</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
-                  <c:v>28709442158.829994</c:v>
+                  <c:v>22314942164.294842</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
-                  <c:v>30680408236.711994</c:v>
+                  <c:v>23043722066.898376</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>23796303068.44846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2375,6 +2403,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2382,7 +2411,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3341,16 +3369,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66E7D33D-54A7-E54F-9360-7E4950789BDC}" name="Table1" displayName="Table1" ref="A1:G14" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:G14" xr:uid="{66E7D33D-54A7-E54F-9360-7E4950789BDC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66E7D33D-54A7-E54F-9360-7E4950789BDC}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G15" xr:uid="{66E7D33D-54A7-E54F-9360-7E4950789BDC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CF27716F-5074-3346-8523-72F1900144BD}" name="Data  Type"/>
     <tableColumn id="2" xr3:uid="{C96BD2F9-89B3-A14C-81FC-E3A8DFCC8429}" name="Fiscal Year"/>
-    <tableColumn id="3" xr3:uid="{01CACE81-45D7-7446-B728-9B2B83E78B79}" name="State Spending" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{06BEE8CE-98D5-CA4D-9416-5950D90F162E}" name="Average Annual Enrollment" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{3EADD39B-572C-DC49-936D-3495F631C368}" name="Average Annual Enrollment Change %" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{2153D761-E319-9740-9788-8F81F69BBF9E}" name="Average Annual Spending per Enrollee" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{009E49B7-E7EF-3B4A-845E-8634520B2845}" name="Average Annual Spending per Enrollee Annual Change %" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{01CACE81-45D7-7446-B728-9B2B83E78B79}" name="State Spending" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{06BEE8CE-98D5-CA4D-9416-5950D90F162E}" name="Average Annual Enrollment" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3EADD39B-572C-DC49-936D-3495F631C368}" name="Average Annual Enrollment Change %" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{2153D761-E319-9740-9788-8F81F69BBF9E}" name="Average Annual Spending per Enrollee" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{009E49B7-E7EF-3B4A-845E-8634520B2845}" name="Average Annual Spending per Enrollee Annual Change %" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3643,10 +3671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92772258-4AC4-6B47-AC5E-CDE7A2651A1C}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3658,7 +3686,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -3675,7 +3703,7 @@
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
@@ -3708,7 +3736,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>3</v>
@@ -3717,10 +3745,10 @@
         <v>22</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>5</v>
@@ -3737,936 +3765,977 @@
     </row>
     <row r="4" spans="1:13" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="28">
         <f t="shared" ref="C4:C7" si="0">D4*12</f>
-        <v>85291822.556157023</v>
+        <v>59784433.303238533</v>
       </c>
       <c r="D4" s="28">
-        <f>(1+$G$27)*D5</f>
-        <v>7107651.8796797516</v>
+        <f>(1+$G$28)*D5</f>
+        <v>4982036.1086032111</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="28">
         <f>C4-C5</f>
-        <v>3539859.9795663655</v>
+        <v>1062860.4683121666</v>
       </c>
       <c r="G4" s="30">
         <f>F4/C5</f>
-        <v>4.329999999999988E-2</v>
+        <v>1.8099999999999991E-2</v>
       </c>
       <c r="H4" s="34">
         <f>K4*D4</f>
-        <v>30680408236.711994</v>
+        <v>23796303068.44846</v>
       </c>
       <c r="I4" s="34">
         <f>H4-H5</f>
-        <v>1970966077.882</v>
+        <v>752581001.55008316</v>
       </c>
       <c r="J4" s="31">
         <f>I4/H5</f>
-        <v>6.8652189999999752E-2</v>
+        <v>3.2658830000000021E-2</v>
       </c>
       <c r="K4" s="29">
         <f>(1+M4)*K5</f>
-        <v>4316.532204457706</v>
+        <v>4776.4212361600312</v>
       </c>
       <c r="L4" s="29">
         <f>K4-K5</f>
-        <v>102.40333161019407</v>
+        <v>67.339863627219529</v>
       </c>
       <c r="M4" s="30">
-        <f>$G$29</f>
-        <v>2.4299999999999999E-2</v>
+        <f>$G$30</f>
+        <v>1.43E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="28">
         <f t="shared" si="0"/>
-        <v>81751962.576590657</v>
+        <v>58721572.834926367</v>
       </c>
       <c r="D5" s="28">
-        <f>(1+$G$27)*D6</f>
-        <v>6812663.5480492208</v>
+        <f>(1+$G$28)*D6</f>
+        <v>4893464.4029105306</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F5" s="28">
         <f>C5-C6</f>
-        <v>3392945.4419307709</v>
+        <v>1043964.707113415</v>
       </c>
       <c r="G5" s="30">
         <f>F5/C6</f>
-        <v>4.329999999999997E-2</v>
+        <v>1.8100000000000008E-2</v>
       </c>
       <c r="H5" s="34">
         <f>K5*D5</f>
-        <v>28709442158.829994</v>
+        <v>23043722066.898376</v>
       </c>
       <c r="I5" s="34">
         <f>H5-H6</f>
-        <v>1844347577.5612297</v>
+        <v>728779902.6035347</v>
       </c>
       <c r="J5" s="31">
         <f>I5/H6</f>
-        <v>6.8652189999999849E-2</v>
+        <v>3.2658829999999882E-2</v>
       </c>
       <c r="K5" s="29">
         <f>(1+M5)*K6</f>
-        <v>4214.128872847512</v>
+        <v>4709.0813725328117</v>
       </c>
       <c r="L5" s="29">
         <f>K5-K6</f>
-        <v>99.973964278233325</v>
+        <v>66.390479766557291</v>
       </c>
       <c r="M5" s="30">
-        <f>$G$29</f>
-        <v>2.4299999999999999E-2</v>
+        <f>$G$30</f>
+        <v>1.43E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="28">
         <f t="shared" si="0"/>
-        <v>78359017.134659886</v>
+        <v>57677608.127812952</v>
       </c>
       <c r="D6" s="28">
-        <f>(1+$G$27)*D7</f>
-        <v>6529918.0945549905</v>
+        <f>(1+$G$28)*D7</f>
+        <v>4806467.343984413</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F6" s="28">
         <f>C6-C7</f>
-        <v>3252128.2870993614</v>
+        <v>1025404.8788070008</v>
       </c>
       <c r="G6" s="30">
         <f>F6/C7</f>
-        <v>4.3299999999999873E-2</v>
+        <v>1.8099999999999877E-2</v>
       </c>
       <c r="H6" s="34">
         <f>K6*D6</f>
-        <v>26865094581.268764</v>
+        <v>22314942164.294842</v>
       </c>
       <c r="I6" s="34">
         <f>H6-H7</f>
-        <v>1725863283.5078278</v>
-      </c>
-      <c r="J6" s="31">
+        <v>705731536.33280563</v>
+      </c>
+      <c r="J6" s="68">
         <f>I6/H7</f>
-        <v>6.8652189999999891E-2</v>
+        <v>3.2658830000000014E-2</v>
       </c>
       <c r="K6" s="29">
         <f>(1+M6)*K7</f>
-        <v>4114.1549085692786</v>
+        <v>4642.6908927662544</v>
       </c>
       <c r="L6" s="29">
         <f>K6-K7</f>
-        <v>97.602230087116368</v>
+        <v>65.454480692652396</v>
       </c>
       <c r="M6" s="30">
-        <f>$G$29</f>
-        <v>2.4299999999999999E-2</v>
+        <f>$G$30</f>
+        <v>1.43E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="28">
         <f t="shared" si="0"/>
-        <v>75106888.847560525</v>
+        <v>56652203.249005951</v>
       </c>
       <c r="D7" s="28">
-        <f>(1+$G$27)*D8</f>
-        <v>6258907.4039633768</v>
+        <f>(1+$G$28)*D8</f>
+        <v>4721016.9374171626</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F7" s="28">
         <f>C7-C8</f>
-        <v>3117155.4558606148</v>
+        <v>1007175.0111059919</v>
       </c>
       <c r="G7" s="30">
         <f>F7/C8</f>
-        <v>4.3300000000000123E-2</v>
+        <v>1.8100000000000047E-2</v>
       </c>
       <c r="H7" s="34">
         <f>K7*D7</f>
-        <v>25139231297.760937</v>
+        <v>21609210627.962036</v>
       </c>
       <c r="I7" s="34">
         <f>H7-H8</f>
-        <v>1614990639.2910004</v>
-      </c>
-      <c r="J7" s="31">
+        <v>683412096.84209061</v>
+      </c>
+      <c r="J7" s="68">
         <f>I7/H8</f>
-        <v>6.8652189999999877E-2</v>
-      </c>
-      <c r="K7" s="29">
+        <v>3.2658829999999743E-2</v>
+      </c>
+      <c r="K7" s="32">
         <f>(1+M7)*K8</f>
-        <v>4016.5526784821623</v>
-      </c>
-      <c r="L7" s="29">
+        <v>4577.236412073602</v>
+      </c>
+      <c r="L7" s="32">
         <f>K7-K8</f>
-        <v>95.286761775960713</v>
+        <v>64.531677701520493</v>
       </c>
       <c r="M7" s="30">
-        <f>$G$29</f>
-        <v>2.4299999999999999E-2</v>
+        <f>$G$30</f>
+        <v>1.43E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28">
         <f>D8*12</f>
-        <v>71989733.39169991</v>
+        <v>55645028.237899959</v>
       </c>
       <c r="D8" s="28">
-        <f>(1+$G$27)*D10</f>
-        <v>5999144.4493083265</v>
+        <f>(1+$G$28)*D10</f>
+        <v>4637085.6864916636</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F8" s="28">
         <f>C8-C10</f>
-        <v>2987784.3916999102</v>
-      </c>
-      <c r="G8" s="31">
+        <v>989269.23789995909</v>
+      </c>
+      <c r="G8" s="30">
         <f>F8/C10</f>
-        <v>4.3299999999998701E-2</v>
+        <v>1.8099999999999252E-2</v>
       </c>
       <c r="H8" s="34">
         <f>K8*D8</f>
-        <v>23524240658.469936</v>
-      </c>
-      <c r="I8" s="34">
+        <v>20925798531.119946</v>
+      </c>
+      <c r="I8" s="69">
         <f>H8-H10</f>
-        <v>1511240658.4699364</v>
-      </c>
-      <c r="J8" s="31">
+        <v>661798531.11994553</v>
+      </c>
+      <c r="J8" s="68">
         <f>I8/H10</f>
-        <v>6.8652189999997115E-2</v>
-      </c>
-      <c r="K8" s="29">
+        <v>3.2658829999997314E-2</v>
+      </c>
+      <c r="K8" s="32">
         <f>(1+M8)*K10</f>
-        <v>3921.2659167062016</v>
-      </c>
-      <c r="L8" s="29">
+        <v>4512.7047343720815</v>
+      </c>
+      <c r="L8" s="32">
         <f>K8-K10</f>
-        <v>93.026224520121559</v>
+        <v>63.621884749601122</v>
       </c>
       <c r="M8" s="30">
-        <f>$G$29</f>
-        <v>2.4299999999999999E-2</v>
+        <f>$G$30</f>
+        <v>1.43E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B9" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="28">
-        <v>25556588</v>
+        <v>13388238</v>
       </c>
       <c r="D9" s="28">
-        <v>5111317.5999999996</v>
+        <v>4462746</v>
       </c>
       <c r="E9" s="28">
-        <v>5035153</v>
+        <v>4466628</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>63</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B10" s="27">
         <v>12</v>
       </c>
       <c r="C10" s="28">
-        <v>69001949</v>
+        <v>54655759</v>
       </c>
       <c r="D10" s="28">
-        <v>5750162.4166666605</v>
+        <v>4554646.5833333302</v>
       </c>
       <c r="E10" s="28">
-        <v>5529750</v>
+        <v>4480486</v>
       </c>
       <c r="F10" s="28">
-        <v>-1449865</v>
+        <v>-8855242</v>
       </c>
       <c r="G10" s="31">
-        <v>-2.05795268805995E-2</v>
+        <v>-0.13942847476140299</v>
       </c>
       <c r="H10" s="34">
-        <v>22013000000</v>
-      </c>
-      <c r="I10" s="34">
-        <v>909000000</v>
-      </c>
-      <c r="J10" s="31">
-        <v>4.3072403335860501E-2</v>
-      </c>
-      <c r="K10" s="29">
-        <v>3828.23969218608</v>
-      </c>
-      <c r="L10" s="29">
-        <v>233.61259003652299</v>
+        <v>20264000000</v>
+      </c>
+      <c r="I10" s="69">
+        <v>-1749000000</v>
+      </c>
+      <c r="J10" s="68">
+        <v>-7.94530504701767E-2</v>
+      </c>
+      <c r="K10" s="32">
+        <v>4449.0828496224804</v>
+      </c>
+      <c r="L10" s="32">
+        <v>289.86640143582002</v>
       </c>
       <c r="M10" s="31">
-        <v>6.4989380928225995E-2</v>
+        <v>6.9692550278838097E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="27">
         <v>12</v>
       </c>
       <c r="C11" s="28">
-        <v>70451814</v>
+        <v>63511001</v>
       </c>
       <c r="D11" s="28">
-        <v>5870984.5</v>
+        <v>5292583.4166666605</v>
       </c>
       <c r="E11" s="28">
-        <v>5930022</v>
+        <v>5080545</v>
       </c>
       <c r="F11" s="28">
-        <v>3110610</v>
+        <v>-1742150</v>
       </c>
       <c r="G11" s="31">
-        <v>4.61917788104887E-2</v>
+        <v>-2.6698327564288801E-2</v>
       </c>
       <c r="H11" s="34">
-        <v>21104000000</v>
-      </c>
-      <c r="I11" s="34">
-        <v>1470000000</v>
-      </c>
-      <c r="J11" s="31">
-        <v>7.4870123255577001E-2</v>
-      </c>
-      <c r="K11" s="29">
-        <v>3594.62710214956</v>
-      </c>
-      <c r="L11" s="29">
-        <v>95.907358439604593</v>
+        <v>22013000000</v>
+      </c>
+      <c r="I11" s="69">
+        <v>909000000</v>
+      </c>
+      <c r="J11" s="68">
+        <v>4.3072403335860501E-2</v>
+      </c>
+      <c r="K11" s="32">
+        <v>4159.2164481866603</v>
+      </c>
+      <c r="L11" s="32">
+        <v>278.20846437298297</v>
       </c>
       <c r="M11" s="31">
-        <v>2.74121294259216E-2</v>
+        <v>7.1684589553356298E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="27">
         <v>12</v>
       </c>
       <c r="C12" s="28">
-        <v>67341204</v>
+        <v>65253151</v>
       </c>
       <c r="D12" s="28">
-        <v>5611767</v>
+        <v>5437762.5833333302</v>
       </c>
       <c r="E12" s="28">
-        <v>5668142</v>
+        <v>5494358</v>
       </c>
       <c r="F12" s="28">
-        <v>5922265</v>
+        <v>2794207</v>
       </c>
       <c r="G12" s="31">
-        <v>9.6424085085546604E-2</v>
+        <v>4.4736699358862E-2</v>
       </c>
       <c r="H12" s="34">
-        <v>19634000000</v>
-      </c>
-      <c r="I12" s="34">
-        <v>1948000000</v>
-      </c>
-      <c r="J12" s="31">
-        <v>0.110143616419767</v>
-      </c>
-      <c r="K12" s="29">
-        <v>3498.7197437099499</v>
-      </c>
-      <c r="L12" s="29">
-        <v>43.238365238083098</v>
+        <v>21104000000</v>
+      </c>
+      <c r="I12" s="69">
+        <v>1470000000</v>
+      </c>
+      <c r="J12" s="68">
+        <v>7.4870123255577001E-2</v>
+      </c>
+      <c r="K12" s="32">
+        <v>3881.0079838136799</v>
+      </c>
+      <c r="L12" s="32">
+        <v>108.802036815927</v>
       </c>
       <c r="M12" s="31">
-        <v>1.25129788015829E-2</v>
+        <v>2.8843079711096099E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="27">
         <v>12</v>
       </c>
       <c r="C13" s="28">
-        <v>61418939</v>
+        <v>62458944</v>
       </c>
       <c r="D13" s="28">
-        <v>5118244.9166666605</v>
+        <v>5204912</v>
       </c>
       <c r="E13" s="28">
-        <v>5325115</v>
+        <v>5252419</v>
       </c>
       <c r="F13" s="28">
-        <v>6107539</v>
+        <v>5547527</v>
       </c>
       <c r="G13" s="31">
-        <v>0.11042098012344601</v>
+        <v>9.7476522153718298E-2</v>
       </c>
       <c r="H13" s="34">
-        <v>17686000000</v>
-      </c>
-      <c r="I13" s="34">
-        <v>-152000000</v>
-      </c>
-      <c r="J13" s="31">
-        <v>-8.5211346563515995E-3</v>
-      </c>
-      <c r="K13" s="29">
-        <v>3455.4813784718699</v>
-      </c>
-      <c r="L13" s="29">
-        <v>-414.53456760795598</v>
+        <v>19634000000</v>
+      </c>
+      <c r="I13" s="69">
+        <v>1948000000</v>
+      </c>
+      <c r="J13" s="68">
+        <v>0.110143616419767</v>
+      </c>
+      <c r="K13" s="32">
+        <v>3772.2059469977498</v>
+      </c>
+      <c r="L13" s="32">
+        <v>43.0420781733364</v>
       </c>
       <c r="M13" s="31">
-        <v>-0.10711443399293</v>
+        <v>1.1542018449005501E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="27">
         <v>12</v>
       </c>
       <c r="C14" s="28">
-        <v>55311400</v>
+        <v>56911417</v>
       </c>
       <c r="D14" s="28">
-        <v>4609283.3333333302</v>
+        <v>4742618.0833333302</v>
       </c>
       <c r="E14" s="28">
-        <v>4574317</v>
+        <v>4947832</v>
       </c>
       <c r="F14" s="28">
-        <v>-899828</v>
+        <v>5853421</v>
       </c>
       <c r="G14" s="31">
-        <v>-1.6007976200057301E-2</v>
+        <v>0.114642591926247</v>
       </c>
       <c r="H14" s="34">
-        <v>17838000000</v>
-      </c>
-      <c r="I14" s="34">
-        <v>1708000000</v>
-      </c>
-      <c r="J14" s="31">
-        <v>0.105889646621202</v>
-      </c>
-      <c r="K14" s="29">
-        <v>3870.01594607983</v>
-      </c>
-      <c r="L14" s="29">
-        <v>426.57578497892098</v>
+        <v>17686000000</v>
+      </c>
+      <c r="I14" s="69">
+        <v>-152000000</v>
+      </c>
+      <c r="J14" s="68">
+        <v>-8.5211346563515995E-3</v>
+      </c>
+      <c r="K14" s="32">
+        <v>3729.1638688244202</v>
+      </c>
+      <c r="L14" s="32">
+        <v>-463.24509293741397</v>
       </c>
       <c r="M14" s="31">
-        <v>0.12388070215297101</v>
+        <v>-0.110496160360924</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="27">
         <v>12</v>
       </c>
       <c r="C15" s="28">
-        <v>56211228</v>
+        <v>51057996</v>
       </c>
       <c r="D15" s="28">
-        <v>4684269</v>
+        <v>4254833</v>
       </c>
       <c r="E15" s="28">
-        <v>4675291</v>
+        <v>4206715</v>
       </c>
       <c r="F15" s="28">
-        <v>431007</v>
+        <v>-1436659</v>
       </c>
       <c r="G15" s="31">
-        <v>7.7268786726391696E-3</v>
+        <v>-2.7367719627836299E-2</v>
       </c>
       <c r="H15" s="34">
-        <v>16130000000</v>
-      </c>
-      <c r="I15" s="34">
-        <v>168000000</v>
-      </c>
-      <c r="J15" s="31">
-        <v>1.05249968675604E-2</v>
-      </c>
-      <c r="K15" s="29">
-        <v>3443.4401611009098</v>
-      </c>
-      <c r="L15" s="29">
-        <v>9.5347988399753305</v>
+        <v>17838000000</v>
+      </c>
+      <c r="I15" s="69">
+        <v>1708000000</v>
+      </c>
+      <c r="J15" s="68">
+        <v>0.105889646621202</v>
+      </c>
+      <c r="K15" s="32">
+        <v>4192.4089617618301</v>
+      </c>
+      <c r="L15" s="32">
+        <v>505.176423515799</v>
       </c>
       <c r="M15" s="31">
-        <v>2.77666325483631E-3</v>
+        <v>0.13700693359472901</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="27">
         <v>12</v>
       </c>
       <c r="C16" s="28">
-        <v>55780221</v>
+        <v>52494655</v>
       </c>
       <c r="D16" s="28">
-        <v>4648351.75</v>
+        <v>4374554.5833333302</v>
       </c>
       <c r="E16" s="28">
-        <v>4661632</v>
+        <v>4352116</v>
       </c>
       <c r="F16" s="28">
-        <v>528594</v>
+        <v>-181772</v>
       </c>
       <c r="G16" s="31">
-        <v>9.56703048762708E-3</v>
+        <v>-3.4507275901609598E-3</v>
       </c>
       <c r="H16" s="34">
-        <v>15962000000</v>
-      </c>
-      <c r="I16" s="34">
-        <v>2200000000</v>
-      </c>
-      <c r="J16" s="31">
-        <v>0.15986048539456399</v>
-      </c>
-      <c r="K16" s="29">
-        <v>3433.9053622609299</v>
-      </c>
-      <c r="L16" s="29">
-        <v>444.96170635737099</v>
+        <v>16130000000</v>
+      </c>
+      <c r="I16" s="69">
+        <v>168000000</v>
+      </c>
+      <c r="J16" s="68">
+        <v>1.05249968675604E-2</v>
+      </c>
+      <c r="K16" s="32">
+        <v>3687.2325382460299</v>
+      </c>
+      <c r="L16" s="32">
+        <v>50.995023503436599</v>
       </c>
       <c r="M16" s="31">
-        <v>0.148869218554358</v>
+        <v>1.40241178681768E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="27">
         <v>12</v>
       </c>
       <c r="C17" s="28">
-        <v>55251627</v>
+        <v>52676427</v>
       </c>
       <c r="D17" s="28">
-        <v>4604302.25</v>
+        <v>4389702.25</v>
       </c>
       <c r="E17" s="28">
-        <v>4590438</v>
+        <v>4391939</v>
       </c>
       <c r="F17" s="28">
-        <v>-1279223</v>
+        <v>-150865</v>
       </c>
       <c r="G17" s="31">
-        <v>-2.2628759341138501E-2</v>
+        <v>-2.8558155129359999E-3</v>
       </c>
       <c r="H17" s="34">
-        <v>13762000000</v>
-      </c>
-      <c r="I17" s="34">
-        <v>1296000000</v>
-      </c>
-      <c r="J17" s="31">
-        <v>0.103962778758222</v>
-      </c>
-      <c r="K17" s="29">
-        <v>2988.9436559035598</v>
-      </c>
-      <c r="L17" s="29">
-        <v>342.742510865057</v>
+        <v>15962000000</v>
+      </c>
+      <c r="I17" s="69">
+        <v>2200000000</v>
+      </c>
+      <c r="J17" s="68">
+        <v>0.15986048539456399</v>
+      </c>
+      <c r="K17" s="32">
+        <v>3636.2375147426001</v>
+      </c>
+      <c r="L17" s="32">
+        <v>510.12611005427999</v>
       </c>
       <c r="M17" s="31">
-        <v>0.12952247092315</v>
+        <v>0.163182319506985</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" s="27">
         <v>12</v>
       </c>
       <c r="C18" s="28">
-        <v>56530850</v>
+        <v>52827292</v>
       </c>
       <c r="D18" s="28">
-        <v>4710904.1666666605</v>
+        <v>4402274.3333333302</v>
       </c>
       <c r="E18" s="28">
-        <v>4795408</v>
+        <v>4363641</v>
       </c>
       <c r="F18" s="28">
-        <v>4876815</v>
+        <v>-2256316</v>
       </c>
       <c r="G18" s="31">
-        <v>9.4413050209920593E-2</v>
+        <v>-4.0961659592087703E-2</v>
       </c>
       <c r="H18" s="34">
-        <v>12466000000</v>
-      </c>
-      <c r="I18" s="34">
-        <v>-201000000</v>
-      </c>
-      <c r="J18" s="31">
-        <v>-1.5868003473592799E-2</v>
-      </c>
-      <c r="K18" s="29">
-        <v>2646.2011450384998</v>
-      </c>
-      <c r="L18" s="29">
-        <v>-296.531208784385</v>
+        <v>13762000000</v>
+      </c>
+      <c r="I18" s="69">
+        <v>1296000000</v>
+      </c>
+      <c r="J18" s="68">
+        <v>0.103962778758222</v>
+      </c>
+      <c r="K18" s="32">
+        <v>3126.1114046883099</v>
+      </c>
+      <c r="L18" s="32">
+        <v>410.38515814324899</v>
       </c>
       <c r="M18" s="31">
-        <v>-0.10076730505211</v>
+        <v>0.15111433218474701</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" s="27">
         <v>12</v>
       </c>
       <c r="C19" s="28">
-        <v>51654035</v>
+        <v>55083608</v>
       </c>
       <c r="D19" s="28">
-        <v>4304502.9166666605</v>
+        <v>4590300.6666666605</v>
       </c>
       <c r="E19" s="28">
-        <v>4495497</v>
+        <v>4640405</v>
       </c>
       <c r="F19" s="28">
-        <v>8567063</v>
+        <v>7344942</v>
       </c>
       <c r="G19" s="31">
-        <v>0.198831865000863</v>
+        <v>0.15385729462989101</v>
       </c>
       <c r="H19" s="34">
-        <v>12667000000</v>
-      </c>
-      <c r="I19" s="34">
-        <v>1450000000</v>
-      </c>
-      <c r="J19" s="31">
-        <v>0.12926807524293399</v>
-      </c>
-      <c r="K19" s="29">
-        <v>2942.7323538228902</v>
-      </c>
-      <c r="L19" s="29">
-        <v>-181.27459658429899</v>
+        <v>12466000000</v>
+      </c>
+      <c r="I19" s="69">
+        <v>-201000000</v>
+      </c>
+      <c r="J19" s="68">
+        <v>-1.5868003473592799E-2</v>
+      </c>
+      <c r="K19" s="32">
+        <v>2715.7262465450699</v>
+      </c>
+      <c r="L19" s="32">
+        <v>-468.35937495092998</v>
       </c>
       <c r="M19" s="31">
-        <v>-5.80263102681867E-2</v>
+        <v>-0.147093838114465</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" s="27">
         <v>12</v>
       </c>
       <c r="C20" s="28">
-        <v>43086972</v>
+        <v>47738666</v>
       </c>
       <c r="D20" s="28">
-        <v>3590581</v>
+        <v>3978222.16666666</v>
       </c>
       <c r="E20" s="28">
-        <v>3585440</v>
+        <v>4386992</v>
       </c>
       <c r="F20" s="28">
-        <v>3267448</v>
+        <v>5840249</v>
       </c>
       <c r="G20" s="31">
-        <v>8.2056430408359401E-2</v>
+        <v>0.139390683901017</v>
       </c>
       <c r="H20" s="34">
-        <v>11217000000</v>
-      </c>
-      <c r="I20" s="34">
-        <v>1420000000</v>
-      </c>
-      <c r="J20" s="31">
-        <v>0.14494232928447401</v>
-      </c>
-      <c r="K20" s="29">
-        <v>3124.0069504071898</v>
-      </c>
-      <c r="L20" s="29">
-        <v>171.58592196897899</v>
+        <v>12667000000</v>
+      </c>
+      <c r="I20" s="69">
+        <v>1450000000</v>
+      </c>
+      <c r="J20" s="68">
+        <v>0.12926807524293399</v>
+      </c>
+      <c r="K20" s="32">
+        <v>3184.0856214959999</v>
+      </c>
+      <c r="L20" s="32">
+        <v>-28.541719532181499</v>
       </c>
       <c r="M20" s="31">
-        <v>5.8117023390714E-2</v>
+        <v>-8.8842297915098199E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" s="27">
         <v>12</v>
       </c>
       <c r="C21" s="28">
-        <v>39819524</v>
+        <v>41898417</v>
       </c>
       <c r="D21" s="28">
-        <v>3318293.66666666</v>
+        <v>3491534.75</v>
       </c>
       <c r="E21" s="28">
-        <v>3400031</v>
+        <v>3488599</v>
       </c>
       <c r="F21" s="28">
-        <v>3635613</v>
+        <v>-59301</v>
       </c>
       <c r="G21" s="31">
-        <v>0.10047595463077499</v>
+        <v>-1.41335141248625E-3</v>
       </c>
       <c r="H21" s="34">
-        <v>9797000000</v>
-      </c>
-      <c r="I21" s="34">
-        <v>5745531000</v>
-      </c>
-      <c r="J21" s="31">
-        <v>1.41813524921454</v>
-      </c>
-      <c r="K21" s="29">
-        <v>2952.4210284382102</v>
-      </c>
-      <c r="L21" s="29">
-        <v>1608.79545960459</v>
+        <v>11217000000</v>
+      </c>
+      <c r="I21" s="69">
+        <v>1420000000</v>
+      </c>
+      <c r="J21" s="68">
+        <v>0.14494232928447401</v>
+      </c>
+      <c r="K21" s="32">
+        <v>3212.6273410281801</v>
+      </c>
+      <c r="L21" s="32">
+        <v>410.66370706696398</v>
       </c>
       <c r="M21" s="31">
-        <v>1.19735400763559</v>
+        <v>0.146562825473361</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" s="27">
         <v>12</v>
       </c>
       <c r="C22" s="28">
-        <v>36183911</v>
+        <v>41957718</v>
       </c>
       <c r="D22" s="28">
-        <v>3015325.91666666</v>
+        <v>3496476.5</v>
       </c>
       <c r="E22" s="28">
-        <v>3045538</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>67</v>
+        <v>3522128</v>
+      </c>
+      <c r="F22" s="28">
+        <v>202009</v>
+      </c>
+      <c r="G22" s="31">
+        <v>4.8378773786358102E-3</v>
       </c>
       <c r="H22" s="34">
+        <v>9797000000</v>
+      </c>
+      <c r="I22" s="69">
+        <v>5745531000</v>
+      </c>
+      <c r="J22" s="68">
+        <v>1.41813524921454</v>
+      </c>
+      <c r="K22" s="32">
+        <v>2801.9636339612098</v>
+      </c>
+      <c r="L22" s="32">
+        <v>1637.62876420724</v>
+      </c>
+      <c r="M22" s="31">
+        <v>1.4064929314993899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="27">
+        <v>12</v>
+      </c>
+      <c r="C23" s="28">
+        <v>41755709</v>
+      </c>
+      <c r="D23" s="28">
+        <v>3479642.41666666</v>
+      </c>
+      <c r="E23" s="28">
+        <v>3522128</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="34">
         <v>4051469000</v>
       </c>
-      <c r="I22" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="29">
-        <v>1343.62556883361</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="I23" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="32">
+        <v>1164.33486975397</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>_xlfn.CONCAT("(2) Full-year Enrollment 2026 Estimate Represents YTD annualized. Months in YTD = ",B9,".")</f>
+        <v>(2) Full-year Enrollment 2026 Estimate Represents YTD annualized. Months in YTD = 3.</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>_xlfn.CONCAT("(3) FY26 full-year spending estimate is based an assumption of per capita spending growth = ",ROUND(G30*100,2),"%")</f>
+        <v>(3) FY26 full-year spending estimate is based an assumption of per capita spending growth = 1.43%</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="G30" s="15">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <f>_xlfn.CONCAT("(2) Full-year Enrollment 2025 Estimate Represents YTD annualized. Months in YTD = ",B9,".")</f>
-        <v>(2) Full-year Enrollment 2025 Estimate Represents YTD annualized. Months in YTD = 5.</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
-        <f>_xlfn.CONCAT("(3) FY25 full-year spending estimate is based an assumption of per capita spending growth = ",ROUND(G29*100,2),"%")</f>
-        <v>(3) FY25 full-year spending estimate is based an assumption of per capita spending growth = 2.43%</v>
-      </c>
-      <c r="G27" s="15">
-        <v>4.3299999999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="G29" s="15">
-        <v>2.4299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:M22">
-    <sortCondition descending="1" ref="A9:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:M23">
+    <sortCondition descending="1" ref="A9:A23"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="C2:E2"/>
@@ -4714,7 +4783,7 @@
     </row>
     <row r="3" spans="16:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="P3" s="64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="65"/>
       <c r="R3" s="65"/>
@@ -4739,8 +4808,8 @@
         <v>11</v>
       </c>
       <c r="Q6" s="21">
-        <f>AVERAGE(projection_data!E14)</f>
-        <v>-2.05795268805995E-2</v>
+        <f>AVERAGE(projection_data!E15)</f>
+        <v>-0.13942847476140399</v>
       </c>
       <c r="R6" s="21"/>
       <c r="S6" s="19"/>
@@ -4750,8 +4819,8 @@
         <v>12</v>
       </c>
       <c r="Q7" s="21">
-        <f>AVERAGE(projection_data!E12:E14)</f>
-        <v>4.0678779005145237E-2</v>
+        <f>AVERAGE(projection_data!E13:E15)</f>
+        <v>-4.0463367655610261E-2</v>
       </c>
       <c r="R7" s="21"/>
       <c r="S7" s="19"/>
@@ -4761,8 +4830,8 @@
         <v>13</v>
       </c>
       <c r="Q8" s="21">
-        <f>AVERAGE(projection_data!E10:E14)</f>
-        <v>4.3289868187764854E-2</v>
+        <f>AVERAGE(projection_data!E11:E15)</f>
+        <v>1.8145802222626913E-2</v>
       </c>
       <c r="R8" s="21"/>
       <c r="S8" s="19"/>
@@ -4775,7 +4844,7 @@
     </row>
     <row r="10" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P10" s="58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="59"/>
       <c r="R10" s="59"/>
@@ -4786,8 +4855,8 @@
         <v>11</v>
       </c>
       <c r="Q11" s="22">
-        <f>AVERAGE(projection_data!G14)</f>
-        <v>6.4989380928225995E-2</v>
+        <f>AVERAGE(projection_data!G15)</f>
+        <v>6.9692550278838097E-2</v>
       </c>
       <c r="R11" s="22"/>
       <c r="S11" s="19"/>
@@ -4797,8 +4866,8 @@
         <v>12</v>
       </c>
       <c r="Q12" s="22">
-        <f>AVERAGE(projection_data!G12:G14)</f>
-        <v>3.4971496385243502E-2</v>
+        <f>AVERAGE(projection_data!G13:G15)</f>
+        <v>5.6740073181096827E-2</v>
       </c>
       <c r="R12" s="22"/>
       <c r="S12" s="19"/>
@@ -4808,8 +4877,8 @@
         <v>13</v>
       </c>
       <c r="Q13" s="22">
-        <f>AVERAGE(projection_data!G10:G14)</f>
-        <v>2.43361514631543E-2</v>
+        <f>AVERAGE(projection_data!G11:G15)</f>
+        <v>1.4253215526274402E-2</v>
       </c>
       <c r="R13" s="22"/>
       <c r="S13" s="19"/>
@@ -4838,7 +4907,7 @@
     </row>
     <row r="17" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P17" s="52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="53"/>
       <c r="R17" s="53"/>
@@ -4855,17 +4924,17 @@
         <v>21</v>
       </c>
       <c r="R19" s="43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P20" s="16">
-        <v>4.3299999999999998E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="44">
-        <v>2.4299999999999999E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="S20" s="8"/>
     </row>
@@ -4875,7 +4944,7 @@
     </row>
     <row r="22" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P22" s="35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S22" s="8"/>
     </row>
@@ -4895,76 +4964,76 @@
     </row>
     <row r="24" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P24" s="10" t="str" cm="1">
-        <f t="array" ref="P24:P28">projection_data!B15:B19</f>
-        <v>FY25</v>
+        <f t="array" ref="P24:P28">projection_data!B16:B20</f>
+        <v>FY26</v>
       </c>
       <c r="Q24" s="11" cm="1">
-        <f t="array" ref="Q24:Q28">projection_data!D15:D19</f>
-        <v>5999144.4493083265</v>
+        <f t="array" ref="Q24:Q28">projection_data!D16:D20</f>
+        <v>4637085.6864916636</v>
       </c>
       <c r="R24" s="41" cm="1">
-        <f t="array" ref="R24:R28">projection_data!F15:F19</f>
-        <v>3921.2659167062016</v>
+        <f t="array" ref="R24:R28">projection_data!F16:F20</f>
+        <v>4512.7047343720815</v>
       </c>
       <c r="S24" s="39" cm="1">
-        <f t="array" ref="S24:S28">projection_data!C15:C19</f>
-        <v>23524240658.469936</v>
+        <f t="array" ref="S24:S28">projection_data!C16:C20</f>
+        <v>20925798531.119946</v>
       </c>
     </row>
     <row r="25" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P25" s="10" t="str">
-        <v>FY26</v>
+        <v>FY27</v>
       </c>
       <c r="Q25" s="11">
-        <v>6258907.4039633768</v>
+        <v>4721016.9374171626</v>
       </c>
       <c r="R25" s="41">
-        <v>4016.5526784821623</v>
+        <v>4577.236412073602</v>
       </c>
       <c r="S25" s="39">
-        <v>25139231297.760937</v>
+        <v>21609210627.962036</v>
       </c>
     </row>
     <row r="26" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P26" s="10" t="str">
-        <v>FY27</v>
+        <v>FY28</v>
       </c>
       <c r="Q26" s="11">
-        <v>6529918.0945549905</v>
+        <v>4806467.343984413</v>
       </c>
       <c r="R26" s="41">
-        <v>4114.1549085692786</v>
+        <v>4642.6908927662544</v>
       </c>
       <c r="S26" s="39">
-        <v>26865094581.268764</v>
+        <v>22314942164.294842</v>
       </c>
     </row>
     <row r="27" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P27" s="10" t="str">
-        <v>FY28</v>
+        <v>FY29</v>
       </c>
       <c r="Q27" s="11">
-        <v>6812663.5480492208</v>
+        <v>4893464.4029105306</v>
       </c>
       <c r="R27" s="41">
-        <v>4214.128872847512</v>
+        <v>4709.0813725328117</v>
       </c>
       <c r="S27" s="39">
-        <v>28709442158.829994</v>
+        <v>23043722066.898376</v>
       </c>
     </row>
     <row r="28" spans="16:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P28" s="12" t="str">
-        <v>FY29</v>
+        <v>FY30</v>
       </c>
       <c r="Q28" s="13">
-        <v>7107651.8796797516</v>
+        <v>4982036.1086032111</v>
       </c>
       <c r="R28" s="42">
-        <v>4316.532204457706</v>
+        <v>4776.4212361600312</v>
       </c>
       <c r="S28" s="40">
-        <v>30680408236.711994</v>
+        <v>23796303068.44846</v>
       </c>
     </row>
     <row r="29" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4997,7 +5066,7 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q12:Q13" formulaRange="1"/>
+    <ignoredError sqref="Q12:Q13 Q7:Q8" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5005,10 +5074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5036,7 +5105,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F1" s="45" t="s">
         <v>6</v>
@@ -5050,22 +5119,22 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3">
         <v>4051469000</v>
       </c>
-      <c r="D2" s="1">
-        <v>3015325.91666666</v>
+      <c r="D2" s="70">
+        <v>3479642.41666666</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1343.62556883361</v>
+        <v>63</v>
+      </c>
+      <c r="F2" s="70">
+        <v>1164.33486975397</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5073,22 +5142,22 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3">
         <v>9797000000</v>
       </c>
       <c r="D3" s="1">
-        <v>3318293.66666666</v>
+        <v>3496476.5</v>
       </c>
       <c r="E3" s="23">
-        <v>0.10047595463077499</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2952.4210284382102</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.19735400763559</v>
+        <v>4.8378773786358596E-3</v>
+      </c>
+      <c r="F3" s="70">
+        <v>2801.9636339612098</v>
+      </c>
+      <c r="G3" s="70">
+        <v>1.4064929314993899</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -5096,22 +5165,22 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3">
         <v>11217000000</v>
       </c>
       <c r="D4" s="1">
-        <v>3590581</v>
+        <v>3491534.75</v>
       </c>
       <c r="E4" s="23">
-        <v>8.2056430408359499E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3124.0069504071898</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5.8117023390714E-2</v>
+        <v>-1.41335141248625E-3</v>
+      </c>
+      <c r="F4" s="70">
+        <v>3212.6273410281801</v>
+      </c>
+      <c r="G4" s="70">
+        <v>0.146562825473361</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5119,22 +5188,22 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3">
         <v>12667000000</v>
       </c>
-      <c r="D5" s="1">
-        <v>4304502.9166666605</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0.198831865000863</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2942.7323538228902</v>
+      <c r="D5" s="70">
+        <v>3978222.16666666</v>
+      </c>
+      <c r="E5" s="71">
+        <v>0.139390683901017</v>
+      </c>
+      <c r="F5" s="70">
+        <v>3184.0856214959999</v>
       </c>
       <c r="G5" s="2">
-        <v>-5.80263102681867E-2</v>
+        <v>-8.8842297915098199E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5142,22 +5211,22 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3">
         <v>12466000000</v>
       </c>
-      <c r="D6" s="1">
-        <v>4710904.1666666605</v>
-      </c>
-      <c r="E6" s="23">
-        <v>9.4413050209920593E-2</v>
+      <c r="D6" s="70">
+        <v>4590300.6666666605</v>
+      </c>
+      <c r="E6" s="71">
+        <v>0.15385729462989101</v>
       </c>
       <c r="F6" s="3">
-        <v>2646.2011450384998</v>
+        <v>2715.7262465450699</v>
       </c>
       <c r="G6" s="2">
-        <v>-0.10076730505211</v>
+        <v>-0.147093838114465</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5165,22 +5234,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3">
         <v>13762000000</v>
       </c>
-      <c r="D7" s="1">
-        <v>4604302.25</v>
+      <c r="D7" s="70">
+        <v>4402274.3333333302</v>
       </c>
       <c r="E7" s="23">
-        <v>-2.2628759341138501E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2988.9436559035598</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.12952247092315</v>
+        <v>-4.09616595920878E-2</v>
+      </c>
+      <c r="F7" s="70">
+        <v>3126.1114046883099</v>
+      </c>
+      <c r="G7" s="70">
+        <v>0.15111433218474701</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5188,22 +5257,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3">
         <v>15962000000</v>
       </c>
       <c r="D8" s="1">
-        <v>4648351.75</v>
+        <v>4389702.25</v>
       </c>
       <c r="E8" s="23">
-        <v>9.56703048762708E-3</v>
+        <v>-2.8558155129359301E-3</v>
       </c>
       <c r="F8" s="3">
-        <v>3433.9053622609299</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.148869218554358</v>
+        <v>3636.2375147426001</v>
+      </c>
+      <c r="G8" s="70">
+        <v>0.163182319506985</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5211,22 +5280,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3">
         <v>16130000000</v>
       </c>
-      <c r="D9" s="1">
-        <v>4684269</v>
+      <c r="D9" s="70">
+        <v>4374554.5833333302</v>
       </c>
       <c r="E9" s="23">
-        <v>7.7268786726391696E-3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3443.4401611009098</v>
+        <v>-3.4507275901610301E-3</v>
+      </c>
+      <c r="F9" s="70">
+        <v>3687.2325382460299</v>
       </c>
       <c r="G9" s="2">
-        <v>2.77666325483631E-3</v>
+        <v>1.40241178681768E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5234,22 +5303,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3">
         <v>17838000000</v>
       </c>
       <c r="D10" s="1">
-        <v>4609283.3333333302</v>
+        <v>4254833</v>
       </c>
       <c r="E10" s="23">
-        <v>-1.6007976200057401E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3870.01594607983</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.12388070215297101</v>
+        <v>-2.7367719627836299E-2</v>
+      </c>
+      <c r="F10" s="70">
+        <v>4192.4089617618301</v>
+      </c>
+      <c r="G10" s="70">
+        <v>0.13700693359472901</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5257,22 +5326,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3">
         <v>17686000000</v>
       </c>
-      <c r="D11" s="1">
-        <v>5118244.9166666605</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.11042098012344601</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3455.4813784718699</v>
+      <c r="D11" s="70">
+        <v>4742618.0833333302</v>
+      </c>
+      <c r="E11" s="71">
+        <v>0.114642591926247</v>
+      </c>
+      <c r="F11" s="70">
+        <v>3729.1638688244202</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.10711443399293</v>
+        <v>-0.110496160360924</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5280,22 +5349,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3">
         <v>19634000000</v>
       </c>
       <c r="D12" s="1">
-        <v>5611767</v>
+        <v>5204912</v>
       </c>
       <c r="E12" s="23">
-        <v>9.6424085085546493E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3498.7197437099499</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.25129788015829E-2</v>
+        <v>9.7476522153718298E-2</v>
+      </c>
+      <c r="F12" s="70">
+        <v>3772.2059469977498</v>
+      </c>
+      <c r="G12" s="70">
+        <v>1.1542018449005501E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5303,22 +5372,22 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3">
         <v>21104000000</v>
       </c>
-      <c r="D13" s="1">
-        <v>5870984.5</v>
+      <c r="D13" s="70">
+        <v>5437762.5833333302</v>
       </c>
       <c r="E13" s="23">
-        <v>4.61917788104887E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3594.62710214956</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2.74121294259216E-2</v>
+        <v>4.4736699358861903E-2</v>
+      </c>
+      <c r="F13" s="70">
+        <v>3881.0079838136799</v>
+      </c>
+      <c r="G13" s="70">
+        <v>2.8843079711096099E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5326,66 +5395,67 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>22013000000</v>
       </c>
-      <c r="D14" s="1">
-        <v>5750162.4166666605</v>
+      <c r="D14" s="70">
+        <v>5292583.4166666605</v>
       </c>
       <c r="E14" s="23">
-        <v>-2.05795268805995E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3828.23969218608</v>
+        <v>-2.66983275642887E-2</v>
+      </c>
+      <c r="F14" s="70">
+        <v>4159.2164481866603</v>
       </c>
       <c r="G14" s="2">
-        <v>6.4989380928225995E-2</v>
+        <v>7.1684589553356298E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="str" cm="1">
-        <f t="array" ref="B15">CONCATENATE("FY",RIGHT(INDEX(Table1[],ROWS(Table1[]),2),2)+1)</f>
-        <v>FY25</v>
-      </c>
-      <c r="C15" s="5">
-        <f>D15*F15</f>
-        <v>23524240658.469936</v>
-      </c>
-      <c r="D15" s="4" cm="1">
-        <f t="array" ref="D15">(1+Graph!$P$20)*INDEX(Table1[],ROWS(Table1[]),4)</f>
-        <v>5999144.4493083265</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="5" cm="1">
-        <f t="array" ref="F15">(1+Graph!$R$20)*INDEX(Table1[],ROWS(Table1[]),6)</f>
-        <v>3921.2659167062016</v>
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3">
+        <v>20264000000</v>
+      </c>
+      <c r="D15" s="70">
+        <v>4554646.5833333302</v>
+      </c>
+      <c r="E15" s="23">
+        <v>-0.13942847476140399</v>
+      </c>
+      <c r="F15" s="70">
+        <v>4449.0828496224804</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6.9692550278838097E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="str">
-        <f>CONCATENATE("FY",RIGHT(B15,2)+1)</f>
+      <c r="B16" s="4" t="str" cm="1">
+        <f t="array" ref="B16">CONCATENATE("FY",RIGHT(INDEX(Table1[],ROWS(Table1[]),2),2)+1)</f>
         <v>FY26</v>
       </c>
       <c r="C16" s="5">
         <f>D16*F16</f>
-        <v>25139231297.760937</v>
-      </c>
-      <c r="D16" s="4">
-        <f>(1+Graph!$P$20)*D15</f>
-        <v>6258907.4039633768</v>
+        <v>20925798531.119946</v>
+      </c>
+      <c r="D16" s="4" cm="1">
+        <f t="array" ref="D16">(1+Graph!$P$20)*INDEX(Table1[],ROWS(Table1[]),4)</f>
+        <v>4637085.6864916636</v>
       </c>
       <c r="E16" s="23"/>
-      <c r="F16" s="5">
-        <f>(1+Graph!$R$20)*F15</f>
-        <v>4016.5526784821623</v>
+      <c r="F16" s="5" cm="1">
+        <f t="array" ref="F16">(1+Graph!$R$20)*INDEX(Table1[],ROWS(Table1[]),6)</f>
+        <v>4512.7047343720815</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5398,16 +5468,16 @@
       </c>
       <c r="C17" s="5">
         <f>D17*F17</f>
-        <v>26865094581.268764</v>
+        <v>21609210627.962036</v>
       </c>
       <c r="D17" s="4">
         <f>(1+Graph!$P$20)*D16</f>
-        <v>6529918.0945549905</v>
+        <v>4721016.9374171626</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="5">
         <f>(1+Graph!$R$20)*F16</f>
-        <v>4114.1549085692786</v>
+        <v>4577.236412073602</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -5415,21 +5485,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f t="shared" ref="B17:B19" si="0">CONCATENATE("FY",RIGHT(B17,2)+1)</f>
+        <f>CONCATENATE("FY",RIGHT(B17,2)+1)</f>
         <v>FY28</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C16:C19" si="1">D18*F18</f>
-        <v>28709442158.829994</v>
+        <f>D18*F18</f>
+        <v>22314942164.294842</v>
       </c>
       <c r="D18" s="4">
         <f>(1+Graph!$P$20)*D17</f>
-        <v>6812663.5480492208</v>
+        <v>4806467.343984413</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="5">
         <f>(1+Graph!$R$20)*F17</f>
-        <v>4214.128872847512</v>
+        <v>4642.6908927662544</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5437,27 +5507,49 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B19:B20" si="0">CONCATENATE("FY",RIGHT(B18,2)+1)</f>
         <v>FY29</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="1"/>
-        <v>30680408236.711994</v>
+        <f t="shared" ref="C19:C20" si="1">D19*F19</f>
+        <v>23043722066.898376</v>
       </c>
       <c r="D19" s="4">
         <f>(1+Graph!$P$20)*D18</f>
-        <v>7107651.8796797516</v>
+        <v>4893464.4029105306</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="5">
         <f>(1+Graph!$R$20)*F18</f>
-        <v>4316.532204457706</v>
+        <v>4709.0813725328117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>FY30</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>23796303068.44846</v>
+      </c>
+      <c r="D20" s="4">
+        <f>(1+Graph!$P$20)*D19</f>
+        <v>4982036.1086032111</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="5">
+        <f>(1+Graph!$R$20)*F19</f>
+        <v>4776.4212361600312</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G14">
-    <sortCondition ref="B2:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G15">
+    <sortCondition ref="B2:B15"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mmc_enrollment_vs_spending.xlsx
+++ b/mmc_enrollment_vs_spending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaac/Documents/RProjects/s2p_data_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3DD4C2-5A42-C342-9113-946D30B5C991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B57D2E-2BDF-8648-9905-1EACA8D8DAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -518,7 +518,7 @@
     <t>FY30 (Forecast)</t>
   </si>
   <si>
-    <t>FY27 Growth Assumptions</t>
+    <t>FY27-FY30 Growth Assumptions</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1080,6 +1080,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,17 +1126,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent4" xfId="11" builtinId="42"/>
@@ -1143,31 +1142,6 @@
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -1197,6 +1171,31 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3369,16 +3368,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66E7D33D-54A7-E54F-9360-7E4950789BDC}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66E7D33D-54A7-E54F-9360-7E4950789BDC}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:G15" xr:uid="{66E7D33D-54A7-E54F-9360-7E4950789BDC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CF27716F-5074-3346-8523-72F1900144BD}" name="Data  Type"/>
     <tableColumn id="2" xr3:uid="{C96BD2F9-89B3-A14C-81FC-E3A8DFCC8429}" name="Fiscal Year"/>
-    <tableColumn id="3" xr3:uid="{01CACE81-45D7-7446-B728-9B2B83E78B79}" name="State Spending" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{06BEE8CE-98D5-CA4D-9416-5950D90F162E}" name="Average Annual Enrollment" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{3EADD39B-572C-DC49-936D-3495F631C368}" name="Average Annual Enrollment Change %" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{2153D761-E319-9740-9788-8F81F69BBF9E}" name="Average Annual Spending per Enrollee" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{009E49B7-E7EF-3B4A-845E-8634520B2845}" name="Average Annual Spending per Enrollee Annual Change %" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{01CACE81-45D7-7446-B728-9B2B83E78B79}" name="State Spending" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{06BEE8CE-98D5-CA4D-9416-5950D90F162E}" name="Average Annual Enrollment" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3EADD39B-572C-DC49-936D-3495F631C368}" name="Average Annual Enrollment Change %" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{2153D761-E319-9740-9788-8F81F69BBF9E}" name="Average Annual Spending per Enrollee" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{009E49B7-E7EF-3B4A-845E-8634520B2845}" name="Average Annual Spending per Enrollee Annual Change %" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3674,7 +3673,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3685,42 +3684,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
@@ -3770,34 +3769,34 @@
       <c r="B4" s="25"/>
       <c r="C4" s="28">
         <f t="shared" ref="C4:C7" si="0">D4*12</f>
-        <v>59784433.303238533</v>
+        <v>58129150.711821631</v>
       </c>
       <c r="D4" s="28">
         <f>(1+$G$28)*D5</f>
-        <v>4982036.1086032111</v>
+        <v>4844095.8926518029</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F4" s="28">
         <f>C4-C5</f>
-        <v>1062860.4683121666</v>
+        <v>1033432.4996404797</v>
       </c>
       <c r="G4" s="30">
         <f>F4/C5</f>
-        <v>1.8099999999999991E-2</v>
+        <v>1.8100000000000015E-2</v>
       </c>
       <c r="H4" s="34">
         <f>K4*D4</f>
-        <v>23796303068.44846</v>
+        <v>23137442491.657654</v>
       </c>
       <c r="I4" s="34">
         <f>H4-H5</f>
-        <v>752581001.55008316</v>
+        <v>731743901.29393005</v>
       </c>
       <c r="J4" s="31">
         <f>I4/H5</f>
-        <v>3.2658830000000021E-2</v>
+        <v>3.2658830000000069E-2</v>
       </c>
       <c r="K4" s="29">
         <f>(1+M4)*K5</f>
@@ -3819,34 +3818,34 @@
       <c r="B5" s="25"/>
       <c r="C5" s="28">
         <f t="shared" si="0"/>
-        <v>58721572.834926367</v>
+        <v>57095718.212181151</v>
       </c>
       <c r="D5" s="28">
         <f>(1+$G$28)*D6</f>
-        <v>4893464.4029105306</v>
+        <v>4757976.5176817626</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="28">
         <f>C5-C6</f>
-        <v>1043964.707113415</v>
+        <v>1015059.9151757956</v>
       </c>
       <c r="G5" s="30">
         <f>F5/C6</f>
-        <v>1.8100000000000008E-2</v>
+        <v>1.8099999999999974E-2</v>
       </c>
       <c r="H5" s="34">
         <f>K5*D5</f>
-        <v>23043722066.898376</v>
+        <v>22405698590.363724</v>
       </c>
       <c r="I5" s="34">
         <f>H5-H6</f>
-        <v>728779902.6035347</v>
+        <v>708601795.71013641</v>
       </c>
       <c r="J5" s="31">
         <f>I5/H6</f>
-        <v>3.2658829999999882E-2</v>
+        <v>3.265883E-2</v>
       </c>
       <c r="K5" s="29">
         <f>(1+M5)*K6</f>
@@ -3868,34 +3867,34 @@
       <c r="B6" s="25"/>
       <c r="C6" s="28">
         <f t="shared" si="0"/>
-        <v>57677608.127812952</v>
+        <v>56080658.297005355</v>
       </c>
       <c r="D6" s="28">
         <f>(1+$G$28)*D7</f>
-        <v>4806467.343984413</v>
+        <v>4673388.1914171129</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F6" s="28">
         <f>C6-C7</f>
-        <v>1025404.8788070008</v>
+        <v>997013.96245535463</v>
       </c>
       <c r="G6" s="30">
         <f>F6/C7</f>
-        <v>1.8099999999999877E-2</v>
+        <v>1.8099999999999995E-2</v>
       </c>
       <c r="H6" s="34">
         <f>K6*D6</f>
-        <v>22314942164.294842</v>
+        <v>21697096794.653587</v>
       </c>
       <c r="I6" s="34">
         <f>H6-H7</f>
-        <v>705731536.33280563</v>
-      </c>
-      <c r="J6" s="68">
+        <v>686191581.50241852</v>
+      </c>
+      <c r="J6" s="48">
         <f>I6/H7</f>
-        <v>3.2658830000000014E-2</v>
+        <v>3.2658830000000034E-2</v>
       </c>
       <c r="K6" s="29">
         <f>(1+M6)*K7</f>
@@ -3917,34 +3916,34 @@
       <c r="B7" s="27"/>
       <c r="C7" s="28">
         <f t="shared" si="0"/>
-        <v>56652203.249005951</v>
+        <v>55083644.334550001</v>
       </c>
       <c r="D7" s="28">
         <f>(1+$G$28)*D8</f>
-        <v>4721016.9374171626</v>
+        <v>4590303.6945458334</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F7" s="28">
         <f>C7-C8</f>
-        <v>1007175.0111059919</v>
+        <v>1530692.3345500007</v>
       </c>
       <c r="G7" s="30">
-        <f>F7/C8</f>
-        <v>1.8100000000000047E-2</v>
+        <f>G28</f>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="H7" s="34">
         <f>K7*D7</f>
-        <v>21609210627.962036</v>
+        <v>21010905213.151169</v>
       </c>
       <c r="I7" s="34">
         <f>H7-H8</f>
-        <v>683412096.84209061</v>
-      </c>
-      <c r="J7" s="68">
+        <v>664490111.90115356</v>
+      </c>
+      <c r="J7" s="48">
         <f>I7/H8</f>
-        <v>3.2658829999999743E-2</v>
+        <v>3.2658829999999826E-2</v>
       </c>
       <c r="K7" s="32">
         <f>(1+M7)*K8</f>
@@ -3965,35 +3964,36 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28">
-        <f>D8*12</f>
-        <v>55645028.237899959</v>
+        <f>C9/(B9/12)</f>
+        <v>53552952</v>
       </c>
       <c r="D8" s="28">
-        <f>(1+$G$28)*D10</f>
-        <v>4637085.6864916636</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>63</v>
+        <f>((C8+C10)/2)/12</f>
+        <v>4508696.291666667</v>
+      </c>
+      <c r="E8" s="28">
+        <f>C8/12</f>
+        <v>4462746</v>
       </c>
       <c r="F8" s="28">
         <f>C8-C10</f>
-        <v>989269.23789995909</v>
-      </c>
-      <c r="G8" s="30">
-        <f>F8/C10</f>
-        <v>1.8099999999999252E-2</v>
+        <v>-1102807</v>
+      </c>
+      <c r="G8" s="31">
+        <f>(C8-C10)/C10</f>
+        <v>-2.0177324771942149E-2</v>
       </c>
       <c r="H8" s="34">
         <f>K8*D8</f>
-        <v>20925798531.119946</v>
-      </c>
-      <c r="I8" s="69">
+        <v>20346415101.250015</v>
+      </c>
+      <c r="I8" s="49">
         <f>H8-H10</f>
-        <v>661798531.11994553</v>
-      </c>
-      <c r="J8" s="68">
+        <v>82415101.250015259</v>
+      </c>
+      <c r="J8" s="48">
         <f>I8/H10</f>
-        <v>3.2658829999997314E-2</v>
+        <v>4.0670697419075827E-3</v>
       </c>
       <c r="K8" s="32">
         <f>(1+M8)*K10</f>
@@ -4033,10 +4033,10 @@
       <c r="H9" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="48" t="s">
         <v>63</v>
       </c>
       <c r="K9" s="32" t="s">
@@ -4074,10 +4074,10 @@
       <c r="H10" s="34">
         <v>20264000000</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="49">
         <v>-1749000000</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="48">
         <v>-7.94530504701767E-2</v>
       </c>
       <c r="K10" s="32">
@@ -4115,10 +4115,10 @@
       <c r="H11" s="34">
         <v>22013000000</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="49">
         <v>909000000</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="48">
         <v>4.3072403335860501E-2</v>
       </c>
       <c r="K11" s="32">
@@ -4156,10 +4156,10 @@
       <c r="H12" s="34">
         <v>21104000000</v>
       </c>
-      <c r="I12" s="69">
+      <c r="I12" s="49">
         <v>1470000000</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="48">
         <v>7.4870123255577001E-2</v>
       </c>
       <c r="K12" s="32">
@@ -4197,10 +4197,10 @@
       <c r="H13" s="34">
         <v>19634000000</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="49">
         <v>1948000000</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="48">
         <v>0.110143616419767</v>
       </c>
       <c r="K13" s="32">
@@ -4238,10 +4238,10 @@
       <c r="H14" s="34">
         <v>17686000000</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="49">
         <v>-152000000</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="48">
         <v>-8.5211346563515995E-3</v>
       </c>
       <c r="K14" s="32">
@@ -4279,10 +4279,10 @@
       <c r="H15" s="34">
         <v>17838000000</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="49">
         <v>1708000000</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="48">
         <v>0.105889646621202</v>
       </c>
       <c r="K15" s="32">
@@ -4320,10 +4320,10 @@
       <c r="H16" s="34">
         <v>16130000000</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="49">
         <v>168000000</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="48">
         <v>1.05249968675604E-2</v>
       </c>
       <c r="K16" s="32">
@@ -4361,10 +4361,10 @@
       <c r="H17" s="34">
         <v>15962000000</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="49">
         <v>2200000000</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="48">
         <v>0.15986048539456399</v>
       </c>
       <c r="K17" s="32">
@@ -4402,10 +4402,10 @@
       <c r="H18" s="34">
         <v>13762000000</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="49">
         <v>1296000000</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="48">
         <v>0.103962778758222</v>
       </c>
       <c r="K18" s="32">
@@ -4443,10 +4443,10 @@
       <c r="H19" s="34">
         <v>12466000000</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="49">
         <v>-201000000</v>
       </c>
-      <c r="J19" s="68">
+      <c r="J19" s="48">
         <v>-1.5868003473592799E-2</v>
       </c>
       <c r="K19" s="32">
@@ -4484,10 +4484,10 @@
       <c r="H20" s="34">
         <v>12667000000</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="49">
         <v>1450000000</v>
       </c>
-      <c r="J20" s="68">
+      <c r="J20" s="48">
         <v>0.12926807524293399</v>
       </c>
       <c r="K20" s="32">
@@ -4525,10 +4525,10 @@
       <c r="H21" s="34">
         <v>11217000000</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="49">
         <v>1420000000</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="48">
         <v>0.14494232928447401</v>
       </c>
       <c r="K21" s="32">
@@ -4566,10 +4566,10 @@
       <c r="H22" s="34">
         <v>9797000000</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="49">
         <v>5745531000</v>
       </c>
-      <c r="J22" s="68">
+      <c r="J22" s="48">
         <v>1.41813524921454</v>
       </c>
       <c r="K22" s="32">
@@ -4598,19 +4598,19 @@
       <c r="E23" s="28">
         <v>3522128</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="48" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="34">
         <v>4051469000</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="48" t="s">
         <v>63</v>
       </c>
       <c r="K23" s="32">
@@ -4774,20 +4774,20 @@
   <sheetData>
     <row r="1" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="16:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="63"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="67"/>
     </row>
     <row r="3" spans="16:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="P3" s="64" t="s">
+      <c r="P3" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="66"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="70"/>
     </row>
     <row r="4" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P4" s="17"/>
@@ -4796,12 +4796,12 @@
       <c r="S4" s="19"/>
     </row>
     <row r="5" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
     </row>
     <row r="6" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P6" s="9" t="s">
@@ -4843,12 +4843,12 @@
       <c r="S9" s="19"/>
     </row>
     <row r="10" spans="16:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P10" s="58" t="s">
+      <c r="P10" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="60"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
     </row>
     <row r="11" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P11" s="9" t="s">
@@ -4890,12 +4890,12 @@
       <c r="S14" s="19"/>
     </row>
     <row r="15" spans="16:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="61"/>
     </row>
     <row r="16" spans="16:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="P16" s="35" t="s">
@@ -4906,18 +4906,18 @@
       <c r="S16" s="19"/>
     </row>
     <row r="17" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="54"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="58"/>
     </row>
     <row r="18" spans="16:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P18" s="52"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="54"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="58"/>
     </row>
     <row r="19" spans="16:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P19" s="20" t="s">
@@ -5124,13 +5124,13 @@
       <c r="C2" s="3">
         <v>4051469000</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2">
         <v>3479642.41666666</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2">
         <v>1164.33486975397</v>
       </c>
       <c r="G2" t="s">
@@ -5153,10 +5153,10 @@
       <c r="E3" s="23">
         <v>4.8378773786358596E-3</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3">
         <v>2801.9636339612098</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3">
         <v>1.4064929314993899</v>
       </c>
     </row>
@@ -5176,10 +5176,10 @@
       <c r="E4" s="23">
         <v>-1.41335141248625E-3</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4">
         <v>3212.6273410281801</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4">
         <v>0.146562825473361</v>
       </c>
     </row>
@@ -5193,13 +5193,13 @@
       <c r="C5" s="3">
         <v>12667000000</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5">
         <v>3978222.16666666</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="50">
         <v>0.139390683901017</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5">
         <v>3184.0856214959999</v>
       </c>
       <c r="G5" s="2">
@@ -5216,10 +5216,10 @@
       <c r="C6" s="3">
         <v>12466000000</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6">
         <v>4590300.6666666605</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="50">
         <v>0.15385729462989101</v>
       </c>
       <c r="F6" s="3">
@@ -5239,16 +5239,16 @@
       <c r="C7" s="3">
         <v>13762000000</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7">
         <v>4402274.3333333302</v>
       </c>
       <c r="E7" s="23">
         <v>-4.09616595920878E-2</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7">
         <v>3126.1114046883099</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7">
         <v>0.15111433218474701</v>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       <c r="F8" s="3">
         <v>3636.2375147426001</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8">
         <v>0.163182319506985</v>
       </c>
     </row>
@@ -5285,13 +5285,13 @@
       <c r="C9" s="3">
         <v>16130000000</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9">
         <v>4374554.5833333302</v>
       </c>
       <c r="E9" s="23">
         <v>-3.4507275901610301E-3</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9">
         <v>3687.2325382460299</v>
       </c>
       <c r="G9" s="2">
@@ -5314,10 +5314,10 @@
       <c r="E10" s="23">
         <v>-2.7367719627836299E-2</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10">
         <v>4192.4089617618301</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10">
         <v>0.13700693359472901</v>
       </c>
     </row>
@@ -5331,13 +5331,13 @@
       <c r="C11" s="3">
         <v>17686000000</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11">
         <v>4742618.0833333302</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="50">
         <v>0.114642591926247</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11">
         <v>3729.1638688244202</v>
       </c>
       <c r="G11" s="2">
@@ -5360,10 +5360,10 @@
       <c r="E12" s="23">
         <v>9.7476522153718298E-2</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12">
         <v>3772.2059469977498</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12">
         <v>1.1542018449005501E-2</v>
       </c>
     </row>
@@ -5377,16 +5377,16 @@
       <c r="C13" s="3">
         <v>21104000000</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13">
         <v>5437762.5833333302</v>
       </c>
       <c r="E13" s="23">
         <v>4.4736699358861903E-2</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13">
         <v>3881.0079838136799</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13">
         <v>2.8843079711096099E-2</v>
       </c>
     </row>
@@ -5400,13 +5400,13 @@
       <c r="C14" s="3">
         <v>22013000000</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14">
         <v>5292583.4166666605</v>
       </c>
       <c r="E14" s="23">
         <v>-2.66983275642887E-2</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14">
         <v>4159.2164481866603</v>
       </c>
       <c r="G14" s="2">
@@ -5423,13 +5423,13 @@
       <c r="C15" s="3">
         <v>20264000000</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15">
         <v>4554646.5833333302</v>
       </c>
       <c r="E15" s="23">
         <v>-0.13942847476140399</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15">
         <v>4449.0828496224804</v>
       </c>
       <c r="G15" s="2">

--- a/mmc_enrollment_vs_spending.xlsx
+++ b/mmc_enrollment_vs_spending.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaac/Documents/RProjects/s2p_data_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B57D2E-2BDF-8648-9905-1EACA8D8DAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55996469-3D36-3241-AC36-7402428B3554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
@@ -3673,13 +3673,13 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="13" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3769,34 +3769,34 @@
       <c r="B4" s="25"/>
       <c r="C4" s="28">
         <f t="shared" ref="C4:C7" si="0">D4*12</f>
-        <v>58129150.711821631</v>
+        <v>58054450.559618697</v>
       </c>
       <c r="D4" s="28">
         <f>(1+$G$28)*D5</f>
-        <v>4844095.8926518029</v>
+        <v>4837870.879968225</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F4" s="28">
         <f>C4-C5</f>
-        <v>1033432.4996404797</v>
+        <v>1032104.4643248171</v>
       </c>
       <c r="G4" s="30">
         <f>F4/C5</f>
-        <v>1.8100000000000015E-2</v>
+        <v>1.8099999999999963E-2</v>
       </c>
       <c r="H4" s="34">
         <f>K4*D4</f>
-        <v>23137442491.657654</v>
+        <v>23107709208.880447</v>
       </c>
       <c r="I4" s="34">
         <f>H4-H5</f>
-        <v>731743901.29393005</v>
+        <v>730803557.59148788</v>
       </c>
       <c r="J4" s="31">
         <f>I4/H5</f>
-        <v>3.2658830000000069E-2</v>
+        <v>3.2658830000000111E-2</v>
       </c>
       <c r="K4" s="29">
         <f>(1+M4)*K5</f>
@@ -3818,34 +3818,34 @@
       <c r="B5" s="25"/>
       <c r="C5" s="28">
         <f t="shared" si="0"/>
-        <v>57095718.212181151</v>
+        <v>57022346.09529388</v>
       </c>
       <c r="D5" s="28">
         <f>(1+$G$28)*D6</f>
-        <v>4757976.5176817626</v>
+        <v>4751862.1746078236</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="28">
         <f>C5-C6</f>
-        <v>1015059.9151757956</v>
+        <v>1013755.4899566025</v>
       </c>
       <c r="G5" s="30">
         <f>F5/C6</f>
-        <v>1.8099999999999974E-2</v>
+        <v>1.809999999999996E-2</v>
       </c>
       <c r="H5" s="34">
         <f>K5*D5</f>
-        <v>22405698590.363724</v>
+        <v>22376905651.28896</v>
       </c>
       <c r="I5" s="34">
         <f>H5-H6</f>
-        <v>708601795.71013641</v>
+        <v>707691191.28287888</v>
       </c>
       <c r="J5" s="31">
         <f>I5/H6</f>
-        <v>3.265883E-2</v>
+        <v>3.265882999999993E-2</v>
       </c>
       <c r="K5" s="29">
         <f>(1+M5)*K6</f>
@@ -3867,34 +3867,34 @@
       <c r="B6" s="25"/>
       <c r="C6" s="28">
         <f t="shared" si="0"/>
-        <v>56080658.297005355</v>
+        <v>56008590.605337277</v>
       </c>
       <c r="D6" s="28">
         <f>(1+$G$28)*D7</f>
-        <v>4673388.1914171129</v>
+        <v>4667382.5504447734</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F6" s="28">
         <f>C6-C7</f>
-        <v>997013.96245535463</v>
+        <v>995732.72758726776</v>
       </c>
       <c r="G6" s="30">
         <f>F6/C7</f>
-        <v>1.8099999999999995E-2</v>
+        <v>1.8099999999999866E-2</v>
       </c>
       <c r="H6" s="34">
         <f>K6*D6</f>
-        <v>21697096794.653587</v>
+        <v>21669214460.006081</v>
       </c>
       <c r="I6" s="34">
         <f>H6-H7</f>
-        <v>686191581.50241852</v>
+        <v>685309775.81712723</v>
       </c>
       <c r="J6" s="48">
         <f>I6/H7</f>
-        <v>3.2658830000000034E-2</v>
+        <v>3.2658829999999833E-2</v>
       </c>
       <c r="K6" s="29">
         <f>(1+M6)*K7</f>
@@ -3916,18 +3916,18 @@
       <c r="B7" s="27"/>
       <c r="C7" s="28">
         <f t="shared" si="0"/>
-        <v>55083644.334550001</v>
+        <v>55012857.877750009</v>
       </c>
       <c r="D7" s="28">
         <f>(1+$G$28)*D8</f>
-        <v>4590303.6945458334</v>
+        <v>4584404.8231458338</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F7" s="28">
         <f>C7-C8</f>
-        <v>1530692.3345500007</v>
+        <v>1598961.8777500093</v>
       </c>
       <c r="G7" s="30">
         <f>G28</f>
@@ -3935,15 +3935,15 @@
       </c>
       <c r="H7" s="34">
         <f>K7*D7</f>
-        <v>21010905213.151169</v>
+        <v>20983904684.188953</v>
       </c>
       <c r="I7" s="34">
         <f>H7-H8</f>
-        <v>664490111.90115356</v>
+        <v>663636194.16989136</v>
       </c>
       <c r="J7" s="48">
         <f>I7/H8</f>
-        <v>3.2658829999999826E-2</v>
+        <v>3.2658830000000104E-2</v>
       </c>
       <c r="K7" s="32">
         <f>(1+M7)*K8</f>
@@ -3965,35 +3965,35 @@
       <c r="B8" s="27"/>
       <c r="C8" s="28">
         <f>C9/(B9/12)</f>
-        <v>53552952</v>
+        <v>53413896</v>
       </c>
       <c r="D8" s="28">
         <f>((C8+C10)/2)/12</f>
-        <v>4508696.291666667</v>
+        <v>4502902.291666667</v>
       </c>
       <c r="E8" s="28">
         <f>C8/12</f>
-        <v>4462746</v>
+        <v>4451158</v>
       </c>
       <c r="F8" s="28">
         <f>C8-C10</f>
-        <v>-1102807</v>
+        <v>-1241863</v>
       </c>
       <c r="G8" s="31">
         <f>(C8-C10)/C10</f>
-        <v>-2.0177324771942149E-2</v>
+        <v>-2.2721539737468471E-2</v>
       </c>
       <c r="H8" s="34">
         <f>K8*D8</f>
-        <v>20346415101.250015</v>
+        <v>20320268490.019062</v>
       </c>
       <c r="I8" s="49">
         <f>H8-H10</f>
-        <v>82415101.250015259</v>
+        <v>56268490.019062042</v>
       </c>
       <c r="J8" s="48">
         <f>I8/H10</f>
-        <v>4.0670697419075827E-3</v>
+        <v>2.7767711221408429E-3</v>
       </c>
       <c r="K8" s="32">
         <f>(1+M8)*K10</f>
@@ -4013,16 +4013,16 @@
         <v>69</v>
       </c>
       <c r="B9" s="27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" s="28">
-        <v>13388238</v>
+        <v>31158106</v>
       </c>
       <c r="D9" s="28">
-        <v>4462746</v>
+        <v>4451158</v>
       </c>
       <c r="E9" s="28">
-        <v>4466628</v>
+        <v>4419503</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>63</v>
@@ -4642,7 +4642,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>_xlfn.CONCAT("(2) Full-year Enrollment 2026 Estimate Represents YTD annualized. Months in YTD = ",B9,".")</f>
-        <v>(2) Full-year Enrollment 2026 Estimate Represents YTD annualized. Months in YTD = 3.</v>
+        <v>(2) Full-year Enrollment 2026 Estimate Represents YTD annualized. Months in YTD = 7.</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -5077,7 +5077,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
